--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9250</v>
+        <v>9611</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5873437500000001</v>
+        <v>-0.67375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003046875</v>
+        <v>0.0025</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06072529069660132</v>
+        <v>0.05540122431794699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003386093586507148</v>
+        <v>0.002132268347967683</v>
       </c>
       <c r="H2" t="n">
-        <v>3.821848206843504e-05</v>
+        <v>2.960257384351209e-05</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3000003264736568</v>
+        <v>0.3000012738921269</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -554,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.10676874999999</v>
+        <v>22.47166875</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5609</v>
+        <v>2.555074999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>12.39335</v>
+        <v>12.3946</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>221104</v>
+        <v>434767</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>0.01254218537885074</v>
+        <v>0.008402738950133338</v>
       </c>
     </row>
     <row r="3">
@@ -614,25 +614,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9250</v>
+        <v>9611</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.588828125</v>
+        <v>-0.676640625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003359375</v>
+        <v>0.00453125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06502492974434324</v>
+        <v>0.06072664546190596</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003403152611354065</v>
+        <v>0.002140657011737251</v>
       </c>
       <c r="H3" t="n">
-        <v>3.808487633236006e-05</v>
+        <v>2.965385334721703e-05</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3400007063970575</v>
+        <v>0.3399996740020741</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -650,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>16.12913124999999</v>
+        <v>22.49151875</v>
       </c>
       <c r="O3" t="n">
-        <v>2.910249999999998</v>
+        <v>2.904399999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>12.3968875</v>
+        <v>12.398275</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>219570</v>
+        <v>432695</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>0.01194192300841409</v>
+        <v>0.007854079331334972</v>
       </c>
     </row>
     <row r="4">
@@ -710,25 +710,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9250</v>
+        <v>9611</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.57234375</v>
+        <v>-0.67984375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002890625</v>
+        <v>0.003984375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07118473868171747</v>
+        <v>0.07423428617036767</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003404056432806439</v>
+        <v>0.002134818713205991</v>
       </c>
       <c r="H4" t="n">
-        <v>3.807349990868614e-05</v>
+        <v>2.942804687693398e-05</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3799996762620905</v>
+        <v>0.3799990896676447</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>16.16121875</v>
+        <v>22.52130624999999</v>
       </c>
       <c r="O4" t="n">
-        <v>3.259625</v>
+        <v>3.253775000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>12.400625</v>
+        <v>12.402175</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>219836</v>
+        <v>436876</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>0.01147729850021075</v>
+        <v>0.009029122541334986</v>
       </c>
     </row>
     <row r="5">
@@ -806,25 +806,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9250</v>
+        <v>9611</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.58625</v>
+        <v>-0.69828125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003125</v>
+        <v>0.0025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0751473843883417</v>
+        <v>0.08819426140829709</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00338620184077266</v>
+        <v>0.002142785320123611</v>
       </c>
       <c r="H5" t="n">
-        <v>3.771685805651443e-05</v>
+        <v>2.942974989624887e-05</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4200003958923806</v>
+        <v>0.4199990537942545</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.20329374999999</v>
+        <v>22.56095625</v>
       </c>
       <c r="O5" t="n">
-        <v>3.60905</v>
+        <v>3.603200000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>12.404625</v>
+        <v>12.4063</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>221518</v>
+        <v>437300</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -894,7 +894,1735 @@
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>0.01285062737431644</v>
+        <v>0.008313644437592214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.671796875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.003515625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1120522703396545</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.002166057148703684</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.940483083196337e-05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4600001765346823</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22.61067499999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.9526875</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12.4107</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>434858</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>60</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>180</v>
+      </c>
+      <c r="X6" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.007901959627160842</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.68578125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00296875</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1351768603019902</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.002173575902483256</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.917164362174072e-05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5000012233485214</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>22.67028125</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.3022375</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.4153</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>436177</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>60</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>180</v>
+      </c>
+      <c r="X7" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.007749108027912011</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.674296875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1679439286399889</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.002211121303288534</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.924366874210862e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5400049896433275</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>22.73975625</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.651875</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12.4201125</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>431055</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>60</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>180</v>
+      </c>
+      <c r="X8" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.008640887233368739</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.674921875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.005546875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1993190003861794</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.002220975442324475</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.021366864648573e-05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.579998095832036</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22.81931874999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.0016</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.4252375</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>430971</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>60</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>180</v>
+      </c>
+      <c r="X9" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.008375162811860227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.676015625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0034375</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2376202034104397</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.002257317934687978</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.021366864648573e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6200002082984606</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>22.90873125</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.351475000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12.430475</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>431395</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>180</v>
+      </c>
+      <c r="X10" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.009425091446127704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.679609375</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001328125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2842753032444323</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002292676194735253</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.021366864648573e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6599988197013554</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>23.008075</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.701437500000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12.4358875</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>438162</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>60</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>180</v>
+      </c>
+      <c r="X11" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.01022565417319077</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.68703125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3375422867814002</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002338084171359591</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.093581626698153e-05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.69999958504686</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>23.117375</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.051562499999999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12.4414875</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>436640</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>60</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>180</v>
+      </c>
+      <c r="X12" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.01046721455475502</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.682578125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.005703125</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4162242730783579</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.002390423134099924</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.198287119811531e-05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7400015392169229</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>23.23663749999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.401837499999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.447275</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>435531</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>60</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>180</v>
+      </c>
+      <c r="X13" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.009838119079429761</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.68671875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001328125</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3993505204491841</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.001369928608764267</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.143849235934305e-05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7799986233308355</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>23.36583125</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.752262500000001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12.4532</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>435923</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>60</v>
+      </c>
+      <c r="V14" t="n">
+        <v>105</v>
+      </c>
+      <c r="W14" t="n">
+        <v>180</v>
+      </c>
+      <c r="X14" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.003358366838110744</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.6782812500000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5823476342890446</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001527177103557801</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.201858034904118e-05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8200007602135166</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>23.50501875</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.102887499999998</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12.4592875</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>434581</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>60</v>
+      </c>
+      <c r="V15" t="n">
+        <v>105</v>
+      </c>
+      <c r="W15" t="n">
+        <v>180</v>
+      </c>
+      <c r="X15" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.003645701800541045</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.684296875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.005234375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.075563777534186</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.002781736753866347</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.365543120374141e-05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8600011656062164</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23.654225</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.453687500000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12.4655125</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>434639</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>60</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>180</v>
+      </c>
+      <c r="X16" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.01186750296541475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9611</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.672109375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002265625</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.873514074889714</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.003270423969317405</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.758797925048509e-05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8999995844849702</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23.81348125</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.8046875</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12.4718375</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>434609</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>60</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>180</v>
+      </c>
+      <c r="X17" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.01307180990242717</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9612</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.68015625</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0034375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.541860005171722</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002218753826434185</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.046564216982621e-05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.099999752850983</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>24.76000625</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9.563324999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12.5045625</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>437042</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>64</v>
+      </c>
+      <c r="V18" t="n">
+        <v>145</v>
+      </c>
+      <c r="W18" t="n">
+        <v>180</v>
+      </c>
+      <c r="X18" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.00426808319115972</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9612</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.67390625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9835268230263811</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001865392499449286</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.435188701997838e-05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.11999730804813</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>24.86854374999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9.739549999999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>12.5078625</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>437054</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>64</v>
+      </c>
+      <c r="V19" t="n">
+        <v>145</v>
+      </c>
+      <c r="W19" t="n">
+        <v>180</v>
+      </c>
+      <c r="X19" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.00431358635796269</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9612</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.680078125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6860523061909166</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.001645656706061005</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.148140936903561e-05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.139999540941444</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>24.979525</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.9158875</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12.511175</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>436561</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>64</v>
+      </c>
+      <c r="V20" t="n">
+        <v>154</v>
+      </c>
+      <c r="W20" t="n">
+        <v>180</v>
+      </c>
+      <c r="X20" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.004232168411078725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9612</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.68953125</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.005468750000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4954066039462818</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001484798113005253</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.886711365702827e-05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.160000919607416</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>25.09306249999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.09225</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12.5144375</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>435323</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>64</v>
+      </c>
+      <c r="V21" t="n">
+        <v>154</v>
+      </c>
+      <c r="W21" t="n">
+        <v>180</v>
+      </c>
+      <c r="X21" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.00391750504067894</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9612</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.684765625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.000390625</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3955017484483202</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.002208881391804533</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.545900886436236e-05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.180001053982441</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>25.20906249999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10.268725</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12.5177375</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>434309</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>60</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>180</v>
+      </c>
+      <c r="X22" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.009170489260956325</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9612</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.6840625</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0028125</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3037246884330189</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.002123139562965389</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.545900886436236e-05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.199998158009192</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>25.32764375</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10.44525</v>
+      </c>
+      <c r="P23" t="n">
+        <v>12.5210125</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>433212</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>60</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>180</v>
+      </c>
+      <c r="X23" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.008464852229313695</v>
       </c>
     </row>
   </sheetData>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,125 +446,135 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>peak_intensity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>peak_intensity_error</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>bkg</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>phi</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>chi</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>mu</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>del</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>nu</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>eta</t>
+          <t>delta</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>transmission</t>
+          <t>omega_t</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>mon</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>transm</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>mask_ctr</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>roi_x</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>roi_y</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>roi_w</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>roi_h</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ss_factor</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>peak_width</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>poly_func</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>poly_order</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>poly_type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>noise</t>
         </is>
@@ -576,359 +585,95 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0411445936210609</v>
+        <v>0.370234375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002184679322998997</v>
+        <v>-0.031171875</v>
       </c>
       <c r="F2" t="n">
-        <v>9.786115364982134e-05</v>
+        <v>-0.01931891553061071</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0348895910479822</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.001047952575534606</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09999962720421532</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15.23426875</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.3986249999999991</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.7822875</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="n">
+        <v>81738</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>80</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-146.6508</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0669</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9095</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.6689</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11.886</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.8345</v>
-      </c>
-      <c r="P2" t="n">
-        <v>130600</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="W2" t="n">
+        <v>240</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>60</v>
-      </c>
-      <c r="V2" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>traditional</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0.009011114999147515</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04404060971237923</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.002227629629309023</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.746839463820597e-05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-146.2289</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0746</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9085</v>
-      </c>
-      <c r="M3" t="n">
-        <v>21.6295</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.84875</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10.8157</v>
-      </c>
-      <c r="P3" t="n">
-        <v>125928</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>20</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>60</v>
-      </c>
-      <c r="V3" t="n">
-        <v>100</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.007954771784600599</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05525468122538955</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.002228304770188015</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.699502925354997e-05</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-145.7663</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08309999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9075</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21.5853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13.82375</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.7946</v>
-      </c>
-      <c r="P4" t="n">
-        <v>127278</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>60</v>
-      </c>
-      <c r="V4" t="n">
-        <v>100</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.008620549848475028</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06329474888846222</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.002637828808149997</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.537067485110892e-05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-145.603</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9075</v>
-      </c>
-      <c r="M5" t="n">
-        <v>21.5718</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.154</v>
-      </c>
-      <c r="O5" t="n">
-        <v>10.787</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91230</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>60</v>
-      </c>
-      <c r="V5" t="n">
-        <v>100</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.01098118131001881</v>
+      <c r="AD2" t="n">
+        <v>0.2528706243591782</v>
       </c>
     </row>
   </sheetData>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +676,1830 @@
         <v>0.2528706243591782</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>239</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.369921875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.030234375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0306686203528263</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03602083406320463</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.001115638389705981</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1168567663976847</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.2269125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4739874999999998</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12.782675</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>81697</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>80</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>240</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2555131608366457</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>239</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.366640625</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.030546875</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02538906832280519</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03720528146606428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001193052423908981</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.133714192847559</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.2199875</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5493500000000004</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12.7830125</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81921</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>80</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>240</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2633941905062686</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>239</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.369765625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.029609375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01924925155299173</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03818773999634662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00125212764901426</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1505722772438844</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.2135125</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6247125000000011</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12.783375</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>81551</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>80</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>240</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.2877566101127563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>239</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.369921875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.030546875</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0132016711176316</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03931455150237265</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.001327559656561201</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1674281367478578</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15.20748125</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7000625000000014</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12.7837375</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>81606</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>80</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>240</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.2898000309178211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>239</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.364375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.030078125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03210029539423864</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04025118189478549</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001391693855284749</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1842844621302785</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.2019</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7754124999999981</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.7841125</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>81573</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>80</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>240</v>
+      </c>
+      <c r="X7" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.3131419648654402</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>239</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.366640625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.030703125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03400019037309654</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04096716402005959</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001435494105203144</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2011440730560368</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15.1968</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8507749999999987</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12.7845625</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>81351</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>80</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>240</v>
+      </c>
+      <c r="X8" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.3106572341674902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>239</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.366640625</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.032109375</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02896574789263651</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04161336255252465</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00147992186103222</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2179988775837056</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15.19211875</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9261124999999986</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.784975</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>81235</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>80</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>240</v>
+      </c>
+      <c r="X9" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3155654168117988</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>239</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.361015625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.029375</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2058321333474415</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04227625984806054</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00152751423818033</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2348562756886619</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15.1879</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.001462499999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12.785425</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>81145</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>80</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>240</v>
+      </c>
+      <c r="X10" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3815628115860824</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>239</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.36890625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.029609375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6035854023273843</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0430058147279319</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.00158334154169437</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2517145645450339</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15.18411875</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.076812499999999</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12.7858625</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>81218</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>80</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>240</v>
+      </c>
+      <c r="X11" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5862182780120627</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>239</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.668977048965846</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04392894359311523</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001646776263736264</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2685729833361876</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15.18080625</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.152162499999999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12.78635</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>81250</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>80</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>240</v>
+      </c>
+      <c r="X12" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.990918566639563</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>239</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.370625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.029296875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.098861696245788</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04501944705799155</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001708949597605758</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2854287729450663</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15.1779125</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.227499999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.7868</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>81163</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>80</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>240</v>
+      </c>
+      <c r="X13" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.611268768680984</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>239</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.361875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0309375</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.88087698057652</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04654371869581538</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.001782081825936057</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3022854423339676</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.1754875</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.302837499999999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12.7872875</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>80950</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>80</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>240</v>
+      </c>
+      <c r="X14" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.509252152680931</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>239</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.370859375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.030234375</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.00730291485214</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04825627587255936</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001864375787849711</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3191424903000004</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15.1735</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.378174999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12.7877875</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>80992</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>80</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>240</v>
+      </c>
+      <c r="X15" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.792077899815132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>239</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.369609375</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.031328125</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23.4083407150317</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0500391635749691</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.001959157574784081</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3359993879820277</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15.17195625</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.453512499999999</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12.788275</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>80933</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>80</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>240</v>
+      </c>
+      <c r="X16" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.255371063644922</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>239</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.37078125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0290625</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.5494447612635</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05132603881998209</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002040197002927849</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3528588305773088</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15.170875</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.528862499999999</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12.7887875</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>80898</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>80</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>240</v>
+      </c>
+      <c r="X17" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.477585005165414</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>239</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.36671875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.032109375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30.93209826031122</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05205124327107966</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.002096872561102655</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3697150955981949</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15.17021875</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.604199999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12.7892875</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>80906</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>80</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>240</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.231762505373693</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>239</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3559375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F19" t="n">
+        <v>31.78572985225935</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05246694150190739</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002135958272314602</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3865701411450752</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15.1700125</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.679524999999998</v>
+      </c>
+      <c r="P19" t="n">
+        <v>12.7898</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>80869</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>80</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>240</v>
+      </c>
+      <c r="X19" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.710387309189457</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>239</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.362265625</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.031328125</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32.00348099783493</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05283834540331669</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.002173428862770354</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4034280257566321</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15.17026875</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.754862499999998</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12.79035</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>80743</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>80</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>240</v>
+      </c>
+      <c r="X20" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.10709708687815</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>239</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.366953125</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.030703125</v>
+      </c>
+      <c r="F21" t="n">
+        <v>56.46762959981378</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04904188826244745</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.001901142926734533</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4202851782025427</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.17095625</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.830200000000001</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12.7908875</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>80828</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>77</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10</v>
+      </c>
+      <c r="W21" t="n">
+        <v>240</v>
+      </c>
+      <c r="X21" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.54370905409459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2500,6 +2500,678 @@
         <v>1.54370905409459</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>239</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.369921875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.03078125</v>
+      </c>
+      <c r="F22" t="n">
+        <v>57.74231311258944</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04928864760245783</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.001907359417408593</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.437142534032867</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15.1720875</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.905537500000001</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12.791425</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>80783</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>77</v>
+      </c>
+      <c r="V22" t="n">
+        <v>10</v>
+      </c>
+      <c r="W22" t="n">
+        <v>240</v>
+      </c>
+      <c r="X22" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.567242433984148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>239</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.378671875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.029140625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>59.00248231300491</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04955877145819353</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.001911389520358967</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4540006788732852</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15.1737125</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.980875000000001</v>
+      </c>
+      <c r="P23" t="n">
+        <v>12.79205</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>80520</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>77</v>
+      </c>
+      <c r="V23" t="n">
+        <v>10</v>
+      </c>
+      <c r="W23" t="n">
+        <v>240</v>
+      </c>
+      <c r="X23" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.629682359345268</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>239</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.365078125</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.032890625</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60.0986020400894</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0497999872003506</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.001916193157425531</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4708585412821902</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15.17575625</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.056212500000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>12.79265</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>80388</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>77</v>
+      </c>
+      <c r="V24" t="n">
+        <v>10</v>
+      </c>
+      <c r="W24" t="n">
+        <v>240</v>
+      </c>
+      <c r="X24" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.646271365061731</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>239</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3721875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.0309375</v>
+      </c>
+      <c r="F25" t="n">
+        <v>61.43230919474978</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05000641473902703</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.001916285444844785</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4877137686888458</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15.17824375</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.1315375</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12.7932375</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>80277</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>77</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10</v>
+      </c>
+      <c r="W25" t="n">
+        <v>240</v>
+      </c>
+      <c r="X25" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.690213258276134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>239</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3696875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.03078125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>62.73743421508154</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.05010663951524311</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.001915920986484906</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5045701660188114</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>15.181175</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.206875</v>
+      </c>
+      <c r="P26" t="n">
+        <v>12.793825</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>80491</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>77</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10</v>
+      </c>
+      <c r="W26" t="n">
+        <v>240</v>
+      </c>
+      <c r="X26" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.696000534247075</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>239</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.37265625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.031328125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>63.90097069853066</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.05033477273181355</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001923591010199174</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.5214279424411044</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15.1845875</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.2822125</v>
+      </c>
+      <c r="P27" t="n">
+        <v>12.7945</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>80448</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>77</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10</v>
+      </c>
+      <c r="W27" t="n">
+        <v>240</v>
+      </c>
+      <c r="X27" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.762057682353713</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>239</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.37125</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.03046875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>64.71992978692553</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05044477057173122</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00192518646410966</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.538285347725167</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15.1884375</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.35755</v>
+      </c>
+      <c r="P28" t="n">
+        <v>12.7951625</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>80492</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>77</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10</v>
+      </c>
+      <c r="W28" t="n">
+        <v>240</v>
+      </c>
+      <c r="X28" t="n">
+        <v>302</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.751368406321544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,11 @@
           <t>ctot</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>peak_shift</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -608,13 +613,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09721576304624097</v>
+        <v>0.0764797415591887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04125126191330538</v>
+        <v>0.03905993799005809</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002542914692872765</v>
+        <v>0.0002612929208226675</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -656,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
         <v>120</v>
@@ -687,10 +692,13 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0.1135486862779087</v>
+        <v>0.04816585102283663</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0001589856854948248</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -710,13 +718,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4071707729783546</v>
+        <v>0.399831418744742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04556229286173753</v>
+        <v>0.04571072931874342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002786526514311072</v>
+        <v>0.000281470490348347</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -758,16 +766,16 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>120</v>
       </c>
       <c r="Y3" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z3" t="n">
         <v>2</v>
@@ -785,14 +793,17 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>0.05499869104848532</v>
+        <v>0.05312430390324365</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0001335700357694114</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="4">
@@ -812,13 +823,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5950849116104151</v>
+        <v>0.599816633813235</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04173875616842294</v>
+        <v>0.04396393891469768</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002884702141238089</v>
+        <v>0.0002919527519200722</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -860,16 +871,16 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
         <v>120</v>
       </c>
       <c r="Y4" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z4" t="n">
         <v>2</v>
@@ -891,10 +902,13 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>0.05249390749885696</v>
+        <v>0.05316468084068966</v>
       </c>
       <c r="AF4" t="n">
         <v>0.0004261338930113039</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="5">
@@ -914,13 +928,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5737280793159372</v>
+        <v>0.5569871463927891</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04649542327058713</v>
+        <v>0.04478417334253781</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002931438007233592</v>
+        <v>0.000296960457833451</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -962,16 +976,16 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>120</v>
       </c>
       <c r="Y5" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z5" t="n">
         <v>2</v>
@@ -993,10 +1007,13 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>0.0594851801585459</v>
+        <v>0.05689482210575092</v>
       </c>
       <c r="AF5" t="n">
         <v>0.000718676592156832</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="6">
@@ -1016,13 +1033,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3859295718181152</v>
+        <v>0.3772420998557531</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0478258169713096</v>
+        <v>0.04546355675638912</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002913798231024266</v>
+        <v>0.0002955654443918182</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -1064,16 +1081,16 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>120</v>
       </c>
       <c r="Y6" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z6" t="n">
         <v>2</v>
@@ -1095,10 +1112,13 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>0.05929301602531142</v>
+        <v>0.05396986467876685</v>
       </c>
       <c r="AF6" t="n">
         <v>0.001011189028630286</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="7">
@@ -1118,13 +1138,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2936633407792793</v>
+        <v>0.3002827235044237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04627027479051893</v>
+        <v>0.04576081504304744</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002886020046516779</v>
+        <v>0.0002922942740059807</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1166,16 +1186,16 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>120</v>
       </c>
       <c r="Y7" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z7" t="n">
         <v>2</v>
@@ -1197,10 +1217,13 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>0.06073485338006509</v>
+        <v>0.06020876104209855</v>
       </c>
       <c r="AF7" t="n">
         <v>0.001303701231108943</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="8">
@@ -1220,13 +1243,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1974332164787453</v>
+        <v>0.1881732894607532</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04810789030699251</v>
+        <v>0.04469348111190367</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002860671991492096</v>
+        <v>0.000289739556215312</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1268,16 +1291,16 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
         <v>120</v>
       </c>
       <c r="Y8" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z8" t="n">
         <v>2</v>
@@ -1299,10 +1322,13 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.0544272601211397</v>
+        <v>0.05381840219155518</v>
       </c>
       <c r="AF8" t="n">
         <v>0.001596208987665999</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="9">
@@ -1322,13 +1348,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1744468418522883</v>
+        <v>0.1597779954669115</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04423939707937794</v>
+        <v>0.0437302971516045</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002840268999623002</v>
+        <v>0.0002872701971481161</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1370,16 +1396,16 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>120</v>
       </c>
       <c r="Y9" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z9" t="n">
         <v>2</v>
@@ -1401,10 +1427,13 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>0.05412921748169588</v>
+        <v>0.05443422729192952</v>
       </c>
       <c r="AF9" t="n">
         <v>0.001888642857126413</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="10">
@@ -1424,13 +1453,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.117556124835927</v>
+        <v>0.1026389804468619</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04288988895424632</v>
+        <v>0.04190559006113124</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002812644596232235</v>
+        <v>0.0002838189930593808</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1472,16 +1501,16 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>120</v>
       </c>
       <c r="Y10" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z10" t="n">
         <v>2</v>
@@ -1503,10 +1532,13 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>0.05355060732814999</v>
+        <v>0.05260824480494995</v>
       </c>
       <c r="AF10" t="n">
         <v>0.002181063517051033</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="11">
@@ -1526,13 +1558,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1210981726791153</v>
+        <v>0.1056745592008538</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05499778352870516</v>
+        <v>0.0543336859646028</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002810911808669656</v>
+        <v>0.0002840198195205669</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1574,16 +1606,16 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
         <v>120</v>
       </c>
       <c r="Y11" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z11" t="n">
         <v>2</v>
@@ -1605,10 +1637,13 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>0.06251579250538276</v>
+        <v>0.06208450450453818</v>
       </c>
       <c r="AF11" t="n">
         <v>0.002473415448778893</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="12">
@@ -1628,13 +1663,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08630567678166948</v>
+        <v>0.06997865568079911</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04512518152847329</v>
+        <v>0.0407540750822448</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002801893493751248</v>
+        <v>0.0002833164998113166</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1676,16 +1711,16 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
         <v>120</v>
       </c>
       <c r="Y12" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z12" t="n">
         <v>2</v>
@@ -1707,10 +1742,13 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>0.05000280866949267</v>
+        <v>0.0478560462372914</v>
       </c>
       <c r="AF12" t="n">
         <v>0.002765730954260923</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="13">
@@ -1730,13 +1768,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07135224750402405</v>
+        <v>0.06120684231986191</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04520459465379715</v>
+        <v>0.04537322521821108</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002782624495140029</v>
+        <v>0.0002818533354045538</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1778,16 +1816,16 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
         <v>120</v>
       </c>
       <c r="Y13" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z13" t="n">
         <v>2</v>
@@ -1809,10 +1847,13 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>0.05463159314171687</v>
+        <v>0.05336100036159234</v>
       </c>
       <c r="AF13" t="n">
         <v>0.003058037269159208</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="14">
@@ -1832,13 +1873,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09854785393791823</v>
+        <v>0.0749864695639202</v>
       </c>
       <c r="G14" t="n">
-        <v>0.050053506122305</v>
+        <v>0.04474936832110227</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002733365588678374</v>
+        <v>0.0002759921267635059</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1880,16 +1921,16 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
         <v>120</v>
       </c>
       <c r="Y14" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z14" t="n">
         <v>2</v>
@@ -1911,10 +1952,13 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>0.05773938728061085</v>
+        <v>0.05538014769721993</v>
       </c>
       <c r="AF14" t="n">
         <v>0.003350170867517325</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="15">
@@ -1934,13 +1978,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06709565084859977</v>
+        <v>0.06112716556812643</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04724952669551501</v>
+        <v>0.04984537077028776</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0002736734514441464</v>
+        <v>0.0002761792763880951</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1982,16 +2026,16 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
         <v>120</v>
       </c>
       <c r="Y15" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z15" t="n">
         <v>2</v>
@@ -2013,10 +2057,13 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>0.05756194010103709</v>
+        <v>0.05547676954839642</v>
       </c>
       <c r="AF15" t="n">
         <v>0.003642322582859247</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="16">
@@ -2036,13 +2083,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0905211264291885</v>
+        <v>0.09193848102884131</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04773532203464591</v>
+        <v>0.04587065448188608</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002749834345665378</v>
+        <v>0.0002776670347874103</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -2084,16 +2131,16 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>120</v>
       </c>
       <c r="Y16" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z16" t="n">
         <v>2</v>
@@ -2115,10 +2162,13 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>0.05419185122749005</v>
+        <v>0.05199340441562435</v>
       </c>
       <c r="AF16" t="n">
         <v>0.003934380251146528</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="17">
@@ -2138,13 +2188,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08047929446625247</v>
+        <v>0.05579762320267311</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05017498429987014</v>
+        <v>0.04914812464050251</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000272161735418065</v>
+        <v>0.0002767376737123554</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -2186,16 +2236,16 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
         <v>120</v>
       </c>
       <c r="Y17" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z17" t="n">
         <v>2</v>
@@ -2217,10 +2267,13 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>0.05402021898958639</v>
+        <v>0.05373885454066227</v>
       </c>
       <c r="AF17" t="n">
         <v>0.004226326624840558</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="18">
@@ -2240,13 +2293,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09671708966426344</v>
+        <v>0.08267578616106608</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04809337291431546</v>
+        <v>0.04814656832547622</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0002752073973577688</v>
+        <v>0.0002790801120946578</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -2288,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
         <v>120</v>
       </c>
       <c r="Y18" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z18" t="n">
         <v>2</v>
@@ -2319,10 +2372,13 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>0.05690227469672784</v>
+        <v>0.0529665028670006</v>
       </c>
       <c r="AF18" t="n">
         <v>0.004518227805618716</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="19">
@@ -2342,13 +2398,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06180744945957739</v>
+        <v>0.06052212184842062</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05306314746522555</v>
+        <v>0.04960210360796548</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0002773025148585115</v>
+        <v>0.0002793344717466512</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -2390,16 +2446,16 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
         <v>120</v>
       </c>
       <c r="Y19" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z19" t="n">
         <v>2</v>
@@ -2421,10 +2477,13 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>0.05602438691582805</v>
+        <v>0.05278842188031275</v>
       </c>
       <c r="AF19" t="n">
         <v>0.004809998234665402</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="20">
@@ -2444,13 +2503,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06773093059628162</v>
+        <v>0.07504126735524852</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04181632088671786</v>
+        <v>0.0442062671953949</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0002770293747793858</v>
+        <v>0.0002793085951288387</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -2492,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>120</v>
       </c>
       <c r="Y20" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z20" t="n">
         <v>2</v>
@@ -2523,10 +2582,13 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>0.04958418839380696</v>
+        <v>0.04957167503171273</v>
       </c>
       <c r="AF20" t="n">
         <v>0.005101681710295304</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="21">
@@ -2546,13 +2608,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07291139547914069</v>
+        <v>0.0846648792895075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05078131816438674</v>
+        <v>0.05090547075718926</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0002785143121063059</v>
+        <v>0.0002817320319629621</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -2594,16 +2656,16 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>120</v>
       </c>
       <c r="Y21" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z21" t="n">
         <v>2</v>
@@ -2625,10 +2687,13 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>0.05963034909891527</v>
+        <v>0.06114476105219446</v>
       </c>
       <c r="AF21" t="n">
         <v>0.005393211541889114</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="22">
@@ -2648,13 +2713,13 @@
         <v>-0.000625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08207830732414151</v>
+        <v>0.04278590211031193</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05089682410260583</v>
+        <v>0.04823521024484088</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0002797041680413505</v>
+        <v>0.0002845787968767183</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2696,16 +2761,16 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
         <v>120</v>
       </c>
       <c r="Y22" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z22" t="n">
         <v>2</v>
@@ -2727,10 +2792,13 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>0.05768467751376159</v>
+        <v>0.05350768904129741</v>
       </c>
       <c r="AF22" t="n">
         <v>0.00568460021300261</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="23">
@@ -2750,13 +2818,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07945667167836808</v>
+        <v>0.05567512197711777</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04674945387014937</v>
+        <v>0.04305159256625588</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0002810504090058778</v>
+        <v>0.0002839989594979024</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2798,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>120</v>
       </c>
       <c r="Y23" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z23" t="n">
         <v>2</v>
@@ -2829,10 +2897,13 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>0.05517601287150128</v>
+        <v>0.04906083071874569</v>
       </c>
       <c r="AF23" t="n">
         <v>0.005975866688449988</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="24">
@@ -2852,13 +2923,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08237234761164461</v>
+        <v>0.0614374806498119</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0427087928050529</v>
+        <v>0.04579738428813349</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0002828090835432922</v>
+        <v>0.0002859362686881916</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2900,16 +2971,16 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
         <v>120</v>
       </c>
       <c r="Y24" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z24" t="n">
         <v>2</v>
@@ -2931,10 +3002,13 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>0.05188481026553405</v>
+        <v>0.05065156510076754</v>
       </c>
       <c r="AF24" t="n">
         <v>0.00626699700686289</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="25">
@@ -2954,13 +3028,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0964531171244115</v>
+        <v>0.09175258444842178</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05167194773595006</v>
+        <v>0.05187140150281065</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000284470898301526</v>
+        <v>0.00028743107201662</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -3002,16 +3076,16 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
         <v>120</v>
       </c>
       <c r="Y25" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z25" t="n">
         <v>2</v>
@@ -3033,10 +3107,13 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>0.05915359428512482</v>
+        <v>0.05709129064325553</v>
       </c>
       <c r="AF25" t="n">
         <v>0.006557980366834047</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="26">
@@ -3056,13 +3133,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08885879688176419</v>
+        <v>0.07614108208945902</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05460689023541372</v>
+        <v>0.05272978068735744</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0002858308923930758</v>
+        <v>0.0002881640091617848</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -3104,16 +3181,16 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
         <v>120</v>
       </c>
       <c r="Y26" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z26" t="n">
         <v>2</v>
@@ -3135,10 +3212,13 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>0.05779429429623166</v>
+        <v>0.05794953013637844</v>
       </c>
       <c r="AF26" t="n">
         <v>0.006848785725417059</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="27">
@@ -3158,13 +3238,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1116546596736758</v>
+        <v>0.0699469496304809</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04954846992918914</v>
+        <v>0.04608051273250414</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0002873898672326689</v>
+        <v>0.000291018583004455</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -3206,16 +3286,16 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W27" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
         <v>120</v>
       </c>
       <c r="Y27" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z27" t="n">
         <v>2</v>
@@ -3237,10 +3317,13 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>0.05279439777066255</v>
+        <v>0.05128638810186835</v>
       </c>
       <c r="AF27" t="n">
         <v>0.007139343835434949</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="28">
@@ -3260,13 +3343,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1148013534890643</v>
+        <v>0.1057561716042622</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04844359356128995</v>
+        <v>0.04884906987823098</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002877896436929365</v>
+        <v>0.0002917339617873584</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -3308,16 +3391,16 @@
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
         <v>120</v>
       </c>
       <c r="Y28" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z28" t="n">
         <v>2</v>
@@ -3339,10 +3422,13 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>0.05194156005300726</v>
+        <v>0.05129928500317994</v>
       </c>
       <c r="AF28" t="n">
         <v>0.007429672231614669</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="29">
@@ -3362,13 +3448,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1548260706211475</v>
+        <v>0.1301760763767931</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0529800690673737</v>
+        <v>0.05049656513847391</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0002920338142967287</v>
+        <v>0.0002957401696222051</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -3410,16 +3496,16 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
         <v>120</v>
       </c>
       <c r="Y29" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z29" t="n">
         <v>2</v>
@@ -3441,10 +3527,13 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>0.05890451387219566</v>
+        <v>0.05614772828898582</v>
       </c>
       <c r="AF29" t="n">
         <v>0.007719861208897987</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="30">
@@ -3464,13 +3553,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1563731188221602</v>
+        <v>0.1506422257740953</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04858055471739857</v>
+        <v>0.04838744053188498</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0002950432124557429</v>
+        <v>0.0002978278319002485</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -3512,16 +3601,16 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
         <v>120</v>
       </c>
       <c r="Y30" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z30" t="n">
         <v>2</v>
@@ -3543,10 +3632,13 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>0.05884724550317363</v>
+        <v>0.05974915310211178</v>
       </c>
       <c r="AF30" t="n">
         <v>0.008009747283939044</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="31">
@@ -3566,13 +3658,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2101415957318016</v>
+        <v>0.1878856510973284</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05382876479889999</v>
+        <v>0.05288908111508341</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0002983223492070489</v>
+        <v>0.0003013296670597441</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -3614,16 +3706,16 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
         <v>120</v>
       </c>
       <c r="Y31" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z31" t="n">
         <v>2</v>
@@ -3645,10 +3737,13 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>0.05915356951329195</v>
+        <v>0.05724098132536806</v>
       </c>
       <c r="AF31" t="n">
         <v>0.008299456036458841</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3763,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2849825318557188</v>
+        <v>0.2714546717412984</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05325727330664249</v>
+        <v>0.05086939343929461</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0003054661802688801</v>
+        <v>0.0003088533963222146</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -3716,16 +3811,16 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
         <v>120</v>
       </c>
       <c r="Y32" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z32" t="n">
         <v>2</v>
@@ -3747,10 +3842,13 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>0.05968026430737586</v>
+        <v>0.05830402631985099</v>
       </c>
       <c r="AF32" t="n">
         <v>0.00858879184594641</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="33">
@@ -3770,13 +3868,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3996002870439789</v>
+        <v>0.3822215894979859</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05984821318542921</v>
+        <v>0.05552981266430723</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0003179852525364528</v>
+        <v>0.0003220019958973222</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -3818,16 +3916,16 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
         <v>120</v>
       </c>
       <c r="Y33" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z33" t="n">
         <v>2</v>
@@ -3849,10 +3947,13 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>0.06865901840070317</v>
+        <v>0.06495350823628604</v>
       </c>
       <c r="AF33" t="n">
         <v>0.008877879897123431</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="34">
@@ -3872,13 +3973,13 @@
         <v>-0.000703125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5911451032894225</v>
+        <v>0.5662365886528147</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04729058019511053</v>
+        <v>0.05084154582544288</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0003352386396113175</v>
+        <v>0.000341185393628949</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -3920,16 +4021,16 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
         <v>120</v>
       </c>
       <c r="Y34" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z34" t="n">
         <v>2</v>
@@ -3951,10 +4052,13 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>0.06431804496546874</v>
+        <v>0.05960791307720424</v>
       </c>
       <c r="AF34" t="n">
         <v>0.009166711083625869</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="35">
@@ -3974,13 +4078,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F35" t="n">
-        <v>1.046835376517438</v>
+        <v>1.02744722726985</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06345757161886266</v>
+        <v>0.06605933374259081</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0003917730578131684</v>
+        <v>0.0003982237065797988</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -4022,16 +4126,16 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
         <v>120</v>
       </c>
       <c r="Y35" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Z35" t="n">
         <v>2</v>
@@ -4053,10 +4157,13 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>0.08751917215027752</v>
+        <v>0.08721292245745318</v>
       </c>
       <c r="AF35" t="n">
         <v>0.00945514894295787</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="36">
@@ -4076,13 +4183,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F36" t="n">
-        <v>2.500934561751771</v>
+        <v>2.466271835178299</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08397751665084027</v>
+        <v>0.07957380218535742</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0005569446240034475</v>
+        <v>0.0005328021978021978</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -4124,16 +4231,16 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W36" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="X36" t="n">
         <v>120</v>
       </c>
       <c r="Y36" t="n">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="Z36" t="n">
         <v>2</v>
@@ -4155,10 +4262,13 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>0.1212927429157758</v>
+        <v>0.1142795049896475</v>
       </c>
       <c r="AF36" t="n">
         <v>0.009743266832289132</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="37">
@@ -4178,13 +4288,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F37" t="n">
-        <v>9.326662674617578</v>
+        <v>9.137278134643649</v>
       </c>
       <c r="G37" t="n">
-        <v>0.552744038167735</v>
+        <v>0.5762358470695149</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001028156781226649</v>
+        <v>0.0009698214036196458</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -4226,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W37" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X37" t="n">
         <v>120</v>
       </c>
       <c r="Y37" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Z37" t="n">
         <v>2</v>
@@ -4257,10 +4367,13 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>0.661108019805614</v>
+        <v>0.7769337422124647</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0100309779327597</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="38">
@@ -4280,13 +4393,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F38" t="n">
-        <v>95588.06814955732</v>
+        <v>95910.33108163434</v>
       </c>
       <c r="G38" t="n">
-        <v>232.247592151744</v>
+        <v>244.3193372937309</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3149247347103485</v>
+        <v>0.2959681001938033</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -4328,16 +4441,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W38" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X38" t="n">
         <v>120</v>
       </c>
       <c r="Y38" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Z38" t="n">
         <v>2</v>
@@ -4359,10 +4472,13 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>162.9228590192894</v>
+        <v>237.8111222685276</v>
       </c>
       <c r="AF38" t="n">
         <v>0.01031832868477658</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="39">
@@ -4382,13 +4498,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F39" t="n">
-        <v>9.824856391431199</v>
+        <v>10.48950920896432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3208626434113447</v>
+        <v>0.3409672920650652</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00157099680915095</v>
+        <v>0.001953075338975339</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -4430,16 +4546,16 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W39" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X39" t="n">
         <v>120</v>
       </c>
       <c r="Y39" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Z39" t="n">
         <v>2</v>
@@ -4461,10 +4577,13 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>0.4047328173729566</v>
+        <v>0.6100091554823772</v>
       </c>
       <c r="AF39" t="n">
         <v>0.01060528634485899</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="40">
@@ -4484,13 +4603,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F40" t="n">
-        <v>1.824086853556663</v>
+        <v>1.839224460880482</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08655053883982608</v>
+        <v>0.08528241636981106</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0006057831021896918</v>
+        <v>0.0006429306249889636</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -4532,16 +4651,16 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W40" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X40" t="n">
         <v>120</v>
       </c>
       <c r="Y40" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Z40" t="n">
         <v>2</v>
@@ -4563,10 +4682,13 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>0.1093188824185696</v>
+        <v>0.1145803493708675</v>
       </c>
       <c r="AF40" t="n">
         <v>0.01089177415282423</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="41">
@@ -4586,13 +4708,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.652430763721988</v>
+        <v>0.6084867007472529</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0557600979119717</v>
+        <v>0.03024718574570079</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000417164051498962</v>
+        <v>0.0004132163579512347</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -4634,16 +4756,16 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W41" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X41" t="n">
         <v>120</v>
       </c>
       <c r="Y41" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z41" t="n">
         <v>2</v>
@@ -4665,10 +4787,13 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>0.07297131142636373</v>
+        <v>0.03698693959718991</v>
       </c>
       <c r="AF41" t="n">
         <v>0.01117777287134961</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="42">
@@ -4688,13 +4813,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3219175789065223</v>
+        <v>0.2936462848877062</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04806764162047973</v>
+        <v>0.02134157667030225</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0003261355006930099</v>
+        <v>0.0003463250110449015</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -4736,16 +4861,16 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X42" t="n">
         <v>120</v>
       </c>
       <c r="Y42" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z42" t="n">
         <v>2</v>
@@ -4767,10 +4892,13 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>0.06800400800823289</v>
+        <v>0.03273246391847421</v>
       </c>
       <c r="AF42" t="n">
         <v>0.01146322545043837</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="43">
@@ -4790,13 +4918,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2286449332254565</v>
+        <v>0.1734825538030717</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04881897342649315</v>
+        <v>0.02930126466156225</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0002840792098273919</v>
+        <v>0.0003051253418055422</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -4838,16 +4966,16 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W43" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X43" t="n">
         <v>120</v>
       </c>
       <c r="Y43" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z43" t="n">
         <v>2</v>
@@ -4869,10 +4997,13 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>0.05820424210016444</v>
+        <v>0.03478525618030711</v>
       </c>
       <c r="AF43" t="n">
         <v>0.01174822448954057</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="44">
@@ -4892,13 +5023,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1333944597707122</v>
+        <v>0.1062819823181862</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04157772930176772</v>
+        <v>0.0277114581370771</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0002621455001229393</v>
+        <v>0.0002842042632881104</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -4940,16 +5071,16 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X44" t="n">
         <v>120</v>
       </c>
       <c r="Y44" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z44" t="n">
         <v>2</v>
@@ -4971,10 +5102,13 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>0.05296197750640971</v>
+        <v>0.03279684515484053</v>
       </c>
       <c r="AF44" t="n">
         <v>0.0120326871026753</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="45">
@@ -4994,13 +5128,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08577369415125768</v>
+        <v>0.07879471194882627</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0476017615971113</v>
+        <v>0.02852902059795393</v>
       </c>
       <c r="H45" t="n">
-        <v>0.000249474330632078</v>
+        <v>0.0002649230072903446</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -5042,16 +5176,16 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W45" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X45" t="n">
         <v>120</v>
       </c>
       <c r="Y45" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z45" t="n">
         <v>2</v>
@@ -5073,10 +5207,13 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>0.05519194830077077</v>
+        <v>0.02861710900718338</v>
       </c>
       <c r="AF45" t="n">
         <v>0.01231645592062328</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="46">
@@ -5096,13 +5233,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06604445397357567</v>
+        <v>0.05221907815329555</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0415150207227165</v>
+        <v>0.02181409160343193</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002402424822910427</v>
+        <v>0.0002595577774607295</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -5144,16 +5281,16 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W46" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X46" t="n">
         <v>120</v>
       </c>
       <c r="Y46" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z46" t="n">
         <v>2</v>
@@ -5175,10 +5312,13 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>0.04759921309516521</v>
+        <v>0.0265601798450627</v>
       </c>
       <c r="AF46" t="n">
         <v>0.01259978099536829</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="47">
@@ -5198,13 +5338,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05577575799011447</v>
+        <v>0.05150658959888991</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03688222513181953</v>
+        <v>0.02395616941140329</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002321778544236316</v>
+        <v>0.0002479499293350684</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -5246,16 +5386,16 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X47" t="n">
         <v>120</v>
       </c>
       <c r="Y47" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z47" t="n">
         <v>2</v>
@@ -5277,10 +5417,13 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>0.04295275357920577</v>
+        <v>0.02652390799039291</v>
       </c>
       <c r="AF47" t="n">
         <v>0.01288237003178895</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="48">
@@ -5300,13 +5443,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06914131311847833</v>
+        <v>0.05085398419726275</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04298401559891621</v>
+        <v>0.02659649494611005</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0002270529942908677</v>
+        <v>0.0002418816070634208</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -5348,16 +5491,16 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W48" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X48" t="n">
         <v>120</v>
       </c>
       <c r="Y48" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z48" t="n">
         <v>2</v>
@@ -5379,10 +5522,13 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>0.04807702354909323</v>
+        <v>0.02755978230352253</v>
       </c>
       <c r="AF48" t="n">
         <v>0.01316418543166263</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="49">
@@ -5402,13 +5548,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05502568744972784</v>
+        <v>0.03307278862684075</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04591269145666736</v>
+        <v>0.02363109703054185</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002208755770081993</v>
+        <v>0.0002387622428467559</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -5450,16 +5596,16 @@
         <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W49" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X49" t="n">
         <v>120</v>
       </c>
       <c r="Y49" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z49" t="n">
         <v>2</v>
@@ -5481,10 +5627,13 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>0.05315185373091517</v>
+        <v>0.0264407949459754</v>
       </c>
       <c r="AF49" t="n">
         <v>0.01344538484793423</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="50">
@@ -5504,13 +5653,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0404682805702648</v>
+        <v>0.04376815902952562</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03726757910301184</v>
+        <v>0.02554594282902289</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000216732016271983</v>
+        <v>0.0002323684259662863</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -5552,16 +5701,16 @@
         <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W50" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X50" t="n">
         <v>120</v>
       </c>
       <c r="Y50" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z50" t="n">
         <v>2</v>
@@ -5583,10 +5732,13 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>0.04185830374352619</v>
+        <v>0.02826530708253469</v>
       </c>
       <c r="AF50" t="n">
         <v>0.01372585148477921</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="51">
@@ -5606,13 +5758,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03948348723508251</v>
+        <v>0.0264290900355694</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04359814944242543</v>
+        <v>0.02231262667761866</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0002116240821607292</v>
+        <v>0.0002247420781923846</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -5654,16 +5806,16 @@
         <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="X51" t="n">
         <v>120</v>
       </c>
       <c r="Y51" t="n">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="Z51" t="n">
         <v>2</v>
@@ -5685,2662 +5837,13 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>0.04678178637300635</v>
+        <v>0.02563135950680018</v>
       </c>
       <c r="AF51" t="n">
         <v>0.01400544596003308</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C52" t="n">
-        <v>50</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-0.586953125</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-0.0009375</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.04494369470466439</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.04439328657112124</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.0002117493208344619</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.69998821412326</v>
-      </c>
-      <c r="L52" t="n">
-        <v>40.093</v>
-      </c>
-      <c r="M52" t="n">
-        <v>90</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>24.0483875</v>
-      </c>
-      <c r="P52" t="n">
-        <v>17.932325</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2</v>
-      </c>
-      <c r="S52" t="n">
-        <v>90584</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
-      <c r="U52" t="b">
-        <v>1</v>
-      </c>
-      <c r="V52" t="n">
-        <v>56</v>
-      </c>
-      <c r="W52" t="n">
-        <v>10</v>
-      </c>
-      <c r="X52" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.04670250550521936</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0.01428418560140011</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C53" t="n">
-        <v>51</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-0.585</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-0.0009375</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.03341327546414016</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.03591983799867519</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.0002083445702990474</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.74998161700885</v>
-      </c>
-      <c r="L53" t="n">
-        <v>40.68565000000001</v>
-      </c>
-      <c r="M53" t="n">
-        <v>90</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>24.5207625</v>
-      </c>
-      <c r="P53" t="n">
-        <v>17.9199</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
-      <c r="S53" t="n">
-        <v>90571</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
-      <c r="U53" t="b">
-        <v>1</v>
-      </c>
-      <c r="V53" t="n">
-        <v>56</v>
-      </c>
-      <c r="W53" t="n">
-        <v>10</v>
-      </c>
-      <c r="X53" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE53" t="n">
-        <v>0.04505449464355448</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0.01456205218638635</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C54" t="n">
-        <v>52</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-0.5909375</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.05220883888856877</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.0381867031654005</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.0002052119490413981</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.799999972796035</v>
-      </c>
-      <c r="L54" t="n">
-        <v>41.29310000000001</v>
-      </c>
-      <c r="M54" t="n">
-        <v>90</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>24.9949875</v>
-      </c>
-      <c r="P54" t="n">
-        <v>17.9050625</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>90856</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U54" t="b">
-        <v>1</v>
-      </c>
-      <c r="V54" t="n">
-        <v>56</v>
-      </c>
-      <c r="W54" t="n">
-        <v>10</v>
-      </c>
-      <c r="X54" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE54" t="n">
-        <v>0.04290714152959686</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0.014839149746727</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C55" t="n">
-        <v>53</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-0.5873437500000001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.03058340708038523</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.03579288376175307</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.0002039798638048408</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.849998220775606</v>
-      </c>
-      <c r="L55" t="n">
-        <v>41.9152</v>
-      </c>
-      <c r="M55" t="n">
-        <v>90</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>25.4707375</v>
-      </c>
-      <c r="P55" t="n">
-        <v>17.887325</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>91603</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
-      <c r="U55" t="b">
-        <v>1</v>
-      </c>
-      <c r="V55" t="n">
-        <v>56</v>
-      </c>
-      <c r="W55" t="n">
-        <v>10</v>
-      </c>
-      <c r="X55" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE55" t="n">
-        <v>0.04428344433997469</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0.01511517331133291</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C56" t="n">
-        <v>54</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-0.589375</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.04660070776000894</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.04311345631031491</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0002038262203168208</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.899990503564362</v>
-      </c>
-      <c r="L56" t="n">
-        <v>42.552425</v>
-      </c>
-      <c r="M56" t="n">
-        <v>90</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>25.94815</v>
-      </c>
-      <c r="P56" t="n">
-        <v>17.8663125</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2</v>
-      </c>
-      <c r="S56" t="n">
-        <v>90013</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
-      <c r="U56" t="b">
-        <v>1</v>
-      </c>
-      <c r="V56" t="n">
-        <v>56</v>
-      </c>
-      <c r="W56" t="n">
-        <v>10</v>
-      </c>
-      <c r="X56" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE56" t="n">
-        <v>0.04522998323757351</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0.01539010585544142</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C57" t="n">
-        <v>55</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-0.5739062500000001</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-0.00078125</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.03354566891387489</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.0429400737082735</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0002024908295655334</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.950003811929659</v>
-      </c>
-      <c r="L57" t="n">
-        <v>43.20542500000001</v>
-      </c>
-      <c r="M57" t="n">
-        <v>90</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>26.4276</v>
-      </c>
-      <c r="P57" t="n">
-        <v>17.8421</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>90850</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" t="b">
-        <v>1</v>
-      </c>
-      <c r="V57" t="n">
-        <v>56</v>
-      </c>
-      <c r="W57" t="n">
-        <v>10</v>
-      </c>
-      <c r="X57" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE57" t="n">
-        <v>0.04558503847732225</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0.01566413067283448</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C58" t="n">
-        <v>56</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-0.59140625</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-0.001171875</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.03808827017746028</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.03634864214893323</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.0002024285364917514</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.000011703727758</v>
-      </c>
-      <c r="L58" t="n">
-        <v>43.874075</v>
-      </c>
-      <c r="M58" t="n">
-        <v>90</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>26.908775</v>
-      </c>
-      <c r="P58" t="n">
-        <v>17.8143375</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
-      <c r="S58" t="n">
-        <v>90017</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1</v>
-      </c>
-      <c r="U58" t="b">
-        <v>1</v>
-      </c>
-      <c r="V58" t="n">
-        <v>56</v>
-      </c>
-      <c r="W58" t="n">
-        <v>10</v>
-      </c>
-      <c r="X58" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE58" t="n">
-        <v>0.04108179302310919</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0.01593697164210393</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C59" t="n">
-        <v>57</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.5821875</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-0.0009375</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.04077985735623135</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.03749562714921678</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.000200096667369815</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.049980189948096</v>
-      </c>
-      <c r="L59" t="n">
-        <v>44.55885000000001</v>
-      </c>
-      <c r="M59" t="n">
-        <v>90</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>27.3918125</v>
-      </c>
-      <c r="P59" t="n">
-        <v>17.7827875</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2</v>
-      </c>
-      <c r="S59" t="n">
-        <v>89935</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1</v>
-      </c>
-      <c r="U59" t="b">
-        <v>1</v>
-      </c>
-      <c r="V59" t="n">
-        <v>56</v>
-      </c>
-      <c r="W59" t="n">
-        <v>10</v>
-      </c>
-      <c r="X59" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.04223456016238959</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0.01620863056210001</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C60" t="n">
-        <v>58</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.5903125</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.03212777165869661</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.03812285046854747</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.0002030523520332343</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.099990225104579</v>
-      </c>
-      <c r="L60" t="n">
-        <v>45.26065000000001</v>
-      </c>
-      <c r="M60" t="n">
-        <v>90</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>27.87715</v>
-      </c>
-      <c r="P60" t="n">
-        <v>17.7472</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
-      <c r="S60" t="n">
-        <v>89311</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
-      <c r="U60" t="b">
-        <v>1</v>
-      </c>
-      <c r="V60" t="n">
-        <v>56</v>
-      </c>
-      <c r="W60" t="n">
-        <v>10</v>
-      </c>
-      <c r="X60" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE60" t="n">
-        <v>0.04143647073600783</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0.0164792767436571</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C61" t="n">
-        <v>59</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.592890625</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-0.00125</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.02198911557377936</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.03981206562793799</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.0002002046239539184</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.149987839202876</v>
-      </c>
-      <c r="L61" t="n">
-        <v>45.979075</v>
-      </c>
-      <c r="M61" t="n">
-        <v>90</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>28.364275</v>
-      </c>
-      <c r="P61" t="n">
-        <v>17.7073</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>91946</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1</v>
-      </c>
-      <c r="U61" t="b">
-        <v>1</v>
-      </c>
-      <c r="V61" t="n">
-        <v>56</v>
-      </c>
-      <c r="W61" t="n">
-        <v>10</v>
-      </c>
-      <c r="X61" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE61" t="n">
-        <v>0.04333097971275876</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0.01674853618580725</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C62" t="n">
-        <v>60</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.581015625</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-0.001015625</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.03126653036756898</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.03711493705547293</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.0002017417188802844</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.200002349843249</v>
-      </c>
-      <c r="L62" t="n">
-        <v>46.71525</v>
-      </c>
-      <c r="M62" t="n">
-        <v>90</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>28.8537375</v>
-      </c>
-      <c r="P62" t="n">
-        <v>17.6628625</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
-      <c r="S62" t="n">
-        <v>91032</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
-      </c>
-      <c r="U62" t="b">
-        <v>1</v>
-      </c>
-      <c r="V62" t="n">
-        <v>56</v>
-      </c>
-      <c r="W62" t="n">
-        <v>10</v>
-      </c>
-      <c r="X62" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE62" t="n">
-        <v>0.04221498124213977</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0.01701664575733711</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C63" t="n">
-        <v>61</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.587734375</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-0.00125</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.03707694386453851</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.03993779624735618</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.000201170905863024</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.250006684077497</v>
-      </c>
-      <c r="L63" t="n">
-        <v>47.46905</v>
-      </c>
-      <c r="M63" t="n">
-        <v>90</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>29.3450375</v>
-      </c>
-      <c r="P63" t="n">
-        <v>17.61325</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2</v>
-      </c>
-      <c r="S63" t="n">
-        <v>91191</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1</v>
-      </c>
-      <c r="U63" t="b">
-        <v>1</v>
-      </c>
-      <c r="V63" t="n">
-        <v>56</v>
-      </c>
-      <c r="W63" t="n">
-        <v>10</v>
-      </c>
-      <c r="X63" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE63" t="n">
-        <v>0.04489221396609392</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0.01728319189579479</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C64" t="n">
-        <v>62</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.586171875</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.03246877666691592</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.04717545969332865</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0002027490553363269</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.299985501301866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>48.241425</v>
-      </c>
-      <c r="M64" t="n">
-        <v>90</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>29.8386625</v>
-      </c>
-      <c r="P64" t="n">
-        <v>17.5583125</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>90516</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1</v>
-      </c>
-      <c r="U64" t="b">
-        <v>1</v>
-      </c>
-      <c r="V64" t="n">
-        <v>56</v>
-      </c>
-      <c r="W64" t="n">
-        <v>10</v>
-      </c>
-      <c r="X64" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE64" t="n">
-        <v>0.04713361671806402</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0.0175483878919428</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C65" t="n">
-        <v>63</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.58078125</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-0.001015625</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.04199683991740463</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.03849275355634648</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0002014510710964201</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.349970737050941</v>
-      </c>
-      <c r="L65" t="n">
-        <v>49.0333</v>
-      </c>
-      <c r="M65" t="n">
-        <v>90</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>30.3348125</v>
-      </c>
-      <c r="P65" t="n">
-        <v>17.497525</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
-      <c r="S65" t="n">
-        <v>89955</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1</v>
-      </c>
-      <c r="U65" t="b">
-        <v>1</v>
-      </c>
-      <c r="V65" t="n">
-        <v>56</v>
-      </c>
-      <c r="W65" t="n">
-        <v>10</v>
-      </c>
-      <c r="X65" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE65" t="n">
-        <v>0.04317632050710814</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0.01781222953708385</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C66" t="n">
-        <v>64</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.581171875</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-0.0009375</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.02280925103146061</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.04126391639795558</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0002025990706494459</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3.400016015008965</v>
-      </c>
-      <c r="L66" t="n">
-        <v>49.84497500000001</v>
-      </c>
-      <c r="M66" t="n">
-        <v>90</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>30.8334125</v>
-      </c>
-      <c r="P66" t="n">
-        <v>17.430675</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2</v>
-      </c>
-      <c r="S66" t="n">
-        <v>91298</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1</v>
-      </c>
-      <c r="U66" t="b">
-        <v>1</v>
-      </c>
-      <c r="V66" t="n">
-        <v>56</v>
-      </c>
-      <c r="W66" t="n">
-        <v>10</v>
-      </c>
-      <c r="X66" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE66" t="n">
-        <v>0.0425199759589012</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0.01807460951695382</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C67" t="n">
-        <v>65</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.5896875</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-0.001015625</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.04957899879845372</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.04393583566786476</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0002041102968680605</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3.449989284016248</v>
-      </c>
-      <c r="L67" t="n">
-        <v>50.67685</v>
-      </c>
-      <c r="M67" t="n">
-        <v>90</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>31.334325</v>
-      </c>
-      <c r="P67" t="n">
-        <v>17.3572</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>2</v>
-      </c>
-      <c r="S67" t="n">
-        <v>91228</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1</v>
-      </c>
-      <c r="U67" t="b">
-        <v>1</v>
-      </c>
-      <c r="V67" t="n">
-        <v>56</v>
-      </c>
-      <c r="W67" t="n">
-        <v>10</v>
-      </c>
-      <c r="X67" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE67" t="n">
-        <v>0.04704149703039733</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0.01833533978244691</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C68" t="n">
-        <v>66</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.5871875</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.05121230099284957</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.0400865682711983</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0002029514240832456</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.500012087085825</v>
-      </c>
-      <c r="L68" t="n">
-        <v>51.52985</v>
-      </c>
-      <c r="M68" t="n">
-        <v>90</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>31.83775</v>
-      </c>
-      <c r="P68" t="n">
-        <v>17.276625</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2</v>
-      </c>
-      <c r="S68" t="n">
-        <v>90256</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1</v>
-      </c>
-      <c r="U68" t="b">
-        <v>1</v>
-      </c>
-      <c r="V68" t="n">
-        <v>56</v>
-      </c>
-      <c r="W68" t="n">
-        <v>10</v>
-      </c>
-      <c r="X68" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE68" t="n">
-        <v>0.04861926696881918</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0.0185944328516533</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C69" t="n">
-        <v>67</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.5921875</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.001171875</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.05828885154800982</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.04451386389697129</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0002049031780183559</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.549978895841876</v>
-      </c>
-      <c r="L69" t="n">
-        <v>52.40485</v>
-      </c>
-      <c r="M69" t="n">
-        <v>90</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>32.3437</v>
-      </c>
-      <c r="P69" t="n">
-        <v>17.1882625</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2</v>
-      </c>
-      <c r="S69" t="n">
-        <v>90227</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1</v>
-      </c>
-      <c r="U69" t="b">
-        <v>1</v>
-      </c>
-      <c r="V69" t="n">
-        <v>56</v>
-      </c>
-      <c r="W69" t="n">
-        <v>10</v>
-      </c>
-      <c r="X69" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE69" t="n">
-        <v>0.04757642271053861</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0.01885177205728208</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C70" t="n">
-        <v>68</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.58421875</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.001015625</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.05418908235341141</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.04034359048614043</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0002085825193007788</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.599997095962363</v>
-      </c>
-      <c r="L70" t="n">
-        <v>53.303125</v>
-      </c>
-      <c r="M70" t="n">
-        <v>90</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>32.8526</v>
-      </c>
-      <c r="P70" t="n">
-        <v>17.0917</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2</v>
-      </c>
-      <c r="S70" t="n">
-        <v>90158</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1</v>
-      </c>
-      <c r="U70" t="b">
-        <v>1</v>
-      </c>
-      <c r="V70" t="n">
-        <v>56</v>
-      </c>
-      <c r="W70" t="n">
-        <v>10</v>
-      </c>
-      <c r="X70" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE70" t="n">
-        <v>0.04462145116125033</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0.01910750496657658</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C71" t="n">
-        <v>69</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.586953125</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.00125</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.06720508322955243</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.04005541541529019</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.0002096476032289053</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.649989781390765</v>
-      </c>
-      <c r="L71" t="n">
-        <v>54.225375</v>
-      </c>
-      <c r="M71" t="n">
-        <v>90</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>33.3642875</v>
-      </c>
-      <c r="P71" t="n">
-        <v>16.9862625</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
-      <c r="S71" t="n">
-        <v>90525</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1</v>
-      </c>
-      <c r="U71" t="b">
-        <v>1</v>
-      </c>
-      <c r="V71" t="n">
-        <v>56</v>
-      </c>
-      <c r="W71" t="n">
-        <v>10</v>
-      </c>
-      <c r="X71" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE71" t="n">
-        <v>0.04349754779147898</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0.01936143228450777</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C72" t="n">
-        <v>70</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.5878125</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.000703125</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.07496128643936106</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.0400133776486182</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.0002164116486959551</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.699987832535496</v>
-      </c>
-      <c r="L72" t="n">
-        <v>55.17227500000001</v>
-      </c>
-      <c r="M72" t="n">
-        <v>90</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>33.8786375</v>
-      </c>
-      <c r="P72" t="n">
-        <v>16.871225</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>2</v>
-      </c>
-      <c r="S72" t="n">
-        <v>89943</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U72" t="b">
-        <v>1</v>
-      </c>
-      <c r="V72" t="n">
-        <v>56</v>
-      </c>
-      <c r="W72" t="n">
-        <v>10</v>
-      </c>
-      <c r="X72" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE72" t="n">
-        <v>0.05152040094517582</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0.01961337738772106</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C73" t="n">
-        <v>71</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.587421875</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.00078125</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.1087948026645163</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.0368109336563645</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0002257405914314304</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.749988143634768</v>
-      </c>
-      <c r="L73" t="n">
-        <v>56.145675</v>
-      </c>
-      <c r="M73" t="n">
-        <v>90</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>34.3960375</v>
-      </c>
-      <c r="P73" t="n">
-        <v>16.745725</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2</v>
-      </c>
-      <c r="S73" t="n">
-        <v>90392</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1</v>
-      </c>
-      <c r="U73" t="b">
-        <v>1</v>
-      </c>
-      <c r="V73" t="n">
-        <v>56</v>
-      </c>
-      <c r="W73" t="n">
-        <v>10</v>
-      </c>
-      <c r="X73" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD73" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE73" t="n">
-        <v>0.0527819037530855</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0.01986341944333476</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C74" t="n">
-        <v>72</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.580546875</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.00109375</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.09215614793437742</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.04200035334004149</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.000245470004544485</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.80002310550707</v>
-      </c>
-      <c r="L74" t="n">
-        <v>57.147125</v>
-      </c>
-      <c r="M74" t="n">
-        <v>90</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>34.916775</v>
-      </c>
-      <c r="P74" t="n">
-        <v>16.609025</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2</v>
-      </c>
-      <c r="S74" t="n">
-        <v>90314</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1</v>
-      </c>
-      <c r="U74" t="b">
-        <v>1</v>
-      </c>
-      <c r="V74" t="n">
-        <v>56</v>
-      </c>
-      <c r="W74" t="n">
-        <v>10</v>
-      </c>
-      <c r="X74" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE74" t="n">
-        <v>0.05274393808626462</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0.02011160848126291</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C75" t="n">
-        <v>73</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.591328125</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.0009375</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.1782686607350108</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.0571358781725772</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.0003100822963537396</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.849977348171658</v>
-      </c>
-      <c r="L75" t="n">
-        <v>58.17720000000001</v>
-      </c>
-      <c r="M75" t="n">
-        <v>90</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>35.440325</v>
-      </c>
-      <c r="P75" t="n">
-        <v>16.460075</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2</v>
-      </c>
-      <c r="S75" t="n">
-        <v>90223</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1</v>
-      </c>
-      <c r="U75" t="b">
-        <v>1</v>
-      </c>
-      <c r="V75" t="n">
-        <v>56</v>
-      </c>
-      <c r="W75" t="n">
-        <v>10</v>
-      </c>
-      <c r="X75" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD75" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE75" t="n">
-        <v>0.07668485159670022</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0.02035754430603643</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4932</v>
-      </c>
-      <c r="C76" t="n">
-        <v>74</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.58296875</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.0009375</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.384186960448531</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.2594670844017304</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.0005856323364332085</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3.900022834719729</v>
-      </c>
-      <c r="L76" t="n">
-        <v>59.23875</v>
-      </c>
-      <c r="M76" t="n">
-        <v>90</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>35.9675375</v>
-      </c>
-      <c r="P76" t="n">
-        <v>16.2978875</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2</v>
-      </c>
-      <c r="S76" t="n">
-        <v>90017</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
-      <c r="U76" t="b">
-        <v>1</v>
-      </c>
-      <c r="V76" t="n">
-        <v>56</v>
-      </c>
-      <c r="W76" t="n">
-        <v>10</v>
-      </c>
-      <c r="X76" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC76" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE76" t="n">
-        <v>0.2914334731328869</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0.02060155097034434</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4933</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.594375</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.001171875</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0339135819302783</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0746989141980455</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.000471315004040495</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2000000905340801</v>
-      </c>
-      <c r="L77" t="n">
-        <v>68.581</v>
-      </c>
-      <c r="M77" t="n">
-        <v>90</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.710999999999999</v>
-      </c>
-      <c r="P77" t="n">
-        <v>12.3831375</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>2</v>
-      </c>
-      <c r="S77" t="n">
-        <v>91194</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1</v>
-      </c>
-      <c r="U77" t="b">
-        <v>1</v>
-      </c>
-      <c r="V77" t="n">
-        <v>56</v>
-      </c>
-      <c r="W77" t="n">
-        <v>10</v>
-      </c>
-      <c r="X77" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>370</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
-      </c>
-      <c r="AC77" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD77" t="inlineStr">
-        <is>
-          <t>vincent</t>
-        </is>
-      </c>
-      <c r="AE77" t="n">
-        <v>0.08923758216713437</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0.0001548229803571081</v>
+      <c r="AG51" t="n">
+        <v>-35</v>
       </c>
     </row>
   </sheetData>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,13 +613,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0764797415591887</v>
+        <v>0.09721576304624097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03905993799005809</v>
+        <v>0.04125126191330538</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002612929208226675</v>
+        <v>0.0002542914692872765</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="U2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>120</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0.04816585102283663</v>
+        <v>0.1135486862779087</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0001589856854948248</v>
@@ -718,13 +718,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.399831418744742</v>
+        <v>0.3604410818283874</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04571072931874342</v>
+        <v>0.05300394812593208</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000281470490348347</v>
+        <v>0.0002772119912235288</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -766,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>120</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>0.05312430390324365</v>
+        <v>0.1680814628053406</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0001335700357694114</v>
       </c>
       <c r="AG3" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,13 +823,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.599816633813235</v>
+        <v>0.5016013013753848</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04396393891469768</v>
+        <v>0.04900457046083301</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002919527519200722</v>
+        <v>0.0002878072665654365</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>120</v>
@@ -898,17 +898,17 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>0.05316468084068966</v>
+        <v>0.2077176018045037</v>
       </c>
       <c r="AF4" t="n">
         <v>0.0004261338930113039</v>
       </c>
       <c r="AG4" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -928,13 +928,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5569871463927891</v>
+        <v>0.4685319849791202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04478417334253781</v>
+        <v>0.05433813830395584</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000296960457833451</v>
+        <v>0.0002923564553438407</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -976,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>120</v>
@@ -1003,17 +1003,17 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>0.05689482210575092</v>
+        <v>0.2181693134248116</v>
       </c>
       <c r="AF5" t="n">
         <v>0.000718676592156832</v>
       </c>
       <c r="AG5" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1033,13 +1033,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3772420998557531</v>
+        <v>0.3231612215533674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04546355675638912</v>
+        <v>0.04710827659715244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002955654443918182</v>
+        <v>0.0002897783946061783</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -1081,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>120</v>
@@ -1108,17 +1108,17 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>0.05396986467876685</v>
+        <v>0.189688000662597</v>
       </c>
       <c r="AF6" t="n">
         <v>0.001011189028630286</v>
       </c>
       <c r="AG6" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1138,13 +1138,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3002827235044237</v>
+        <v>0.2358807239767866</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04576081504304744</v>
+        <v>0.05373298183579019</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002922942740059807</v>
+        <v>0.0002867624075509777</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1186,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>120</v>
@@ -1213,17 +1213,17 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>0.06020876104209855</v>
+        <v>0.1620931418455959</v>
       </c>
       <c r="AF7" t="n">
         <v>0.001303701231108943</v>
       </c>
       <c r="AG7" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1243,13 +1243,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1881732894607532</v>
+        <v>0.1752532632878965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04469348111190367</v>
+        <v>0.05666028735649346</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000289739556215312</v>
+        <v>0.0002824059200833066</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1291,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>120</v>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.05381840219155518</v>
+        <v>0.1502211440096811</v>
       </c>
       <c r="AF8" t="n">
         <v>0.001596208987665999</v>
       </c>
       <c r="AG8" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1348,13 +1348,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1597779954669115</v>
+        <v>0.1601861918720787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0437302971516045</v>
+        <v>0.04852358814720904</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002872701971481161</v>
+        <v>0.0002798863829567043</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1396,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>120</v>
@@ -1423,17 +1423,17 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>0.05443422729192952</v>
+        <v>0.1311107407624554</v>
       </c>
       <c r="AF9" t="n">
         <v>0.001888642857126413</v>
       </c>
       <c r="AG9" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1453,13 +1453,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1026389804468619</v>
+        <v>0.1246096315346143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04190559006113124</v>
+        <v>0.05296435373276343</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002838189930593808</v>
+        <v>0.0002757035486516593</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>120</v>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>0.05260824480494995</v>
+        <v>0.1280802061283253</v>
       </c>
       <c r="AF10" t="n">
         <v>0.002181063517051033</v>
       </c>
       <c r="AG10" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1558,13 +1558,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1056745592008538</v>
+        <v>0.1221997738995097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0543336859646028</v>
+        <v>0.05700488559693473</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002840198195205669</v>
+        <v>0.000275556539765143</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1606,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>120</v>
@@ -1633,17 +1633,17 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>0.06208450450453818</v>
+        <v>0.1366536523978645</v>
       </c>
       <c r="AF11" t="n">
         <v>0.002473415448778893</v>
       </c>
       <c r="AG11" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1663,13 +1663,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06997865568079911</v>
+        <v>0.09074415077719829</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0407540750822448</v>
+        <v>0.04083701844053463</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002833164998113166</v>
+        <v>0.0002756911609827324</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1711,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>120</v>
@@ -1738,17 +1738,17 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>0.0478560462372914</v>
+        <v>0.1219435255325556</v>
       </c>
       <c r="AF12" t="n">
         <v>0.002765730954260923</v>
       </c>
       <c r="AG12" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1768,13 +1768,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06120684231986191</v>
+        <v>0.1057960615614632</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04537322521821108</v>
+        <v>0.05055945498855801</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002818533354045538</v>
+        <v>0.0002723328105967581</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1816,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>120</v>
@@ -1843,17 +1843,17 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>0.05336100036159234</v>
+        <v>0.120808160117275</v>
       </c>
       <c r="AF13" t="n">
         <v>0.003058037269159208</v>
       </c>
       <c r="AG13" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1873,13 +1873,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0749864695639202</v>
+        <v>0.08203446122634632</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04474936832110227</v>
+        <v>0.04782319831993857</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002759921267635059</v>
+        <v>0.0002685630121605095</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>120</v>
@@ -1948,17 +1948,17 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>0.05538014769721993</v>
+        <v>0.1156694581905917</v>
       </c>
       <c r="AF14" t="n">
         <v>0.003350170867517325</v>
       </c>
       <c r="AG14" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1978,13 +1978,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06112716556812643</v>
+        <v>0.08663175493770531</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04984537077028776</v>
+        <v>0.04755060219320809</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0002761792763880951</v>
+        <v>0.0002680029845205473</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -2026,10 +2026,10 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>120</v>
@@ -2053,17 +2053,17 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>0.05547676954839642</v>
+        <v>0.1201554965591009</v>
       </c>
       <c r="AF15" t="n">
         <v>0.003642322582859247</v>
       </c>
       <c r="AG15" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2083,13 +2083,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09193848102884131</v>
+        <v>0.08195919090109033</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04587065448188608</v>
+        <v>0.04690142569321648</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002776670347874103</v>
+        <v>0.0002696380146021228</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -2131,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>120</v>
@@ -2158,17 +2158,17 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>0.05199340441562435</v>
+        <v>0.119972380598467</v>
       </c>
       <c r="AF16" t="n">
         <v>0.003934380251146528</v>
       </c>
       <c r="AG16" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2188,13 +2188,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05579762320267311</v>
+        <v>0.07322718014511045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04914812464050251</v>
+        <v>0.05390076501814485</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002767376737123554</v>
+        <v>0.0002665056537893042</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -2236,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>120</v>
@@ -2263,17 +2263,17 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>0.05373885454066227</v>
+        <v>0.1270999661326299</v>
       </c>
       <c r="AF17" t="n">
         <v>0.004226326624840558</v>
       </c>
       <c r="AG17" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2293,13 +2293,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08267578616106608</v>
+        <v>0.08736425290719792</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04814656832547622</v>
+        <v>0.04868541168932768</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0002790801120946578</v>
+        <v>0.0002695757899263082</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -2341,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>120</v>
@@ -2368,17 +2368,17 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>0.0529665028670006</v>
+        <v>0.1210828679212608</v>
       </c>
       <c r="AF18" t="n">
         <v>0.004518227805618716</v>
       </c>
       <c r="AG18" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2398,13 +2398,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06052212184842062</v>
+        <v>0.08470383183684116</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04960210360796548</v>
+        <v>0.04810355329359534</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0002793344717466512</v>
+        <v>0.0002700411257971357</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -2446,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>120</v>
@@ -2473,17 +2473,17 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>0.05278842188031275</v>
+        <v>0.1245521005251173</v>
       </c>
       <c r="AF19" t="n">
         <v>0.004809998234665402</v>
       </c>
       <c r="AG19" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2503,13 +2503,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07504126735524852</v>
+        <v>0.07920014823169345</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0442062671953949</v>
+        <v>0.04242965664545872</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0002793085951288387</v>
+        <v>0.000270289764482096</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -2551,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>120</v>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>0.04957167503171273</v>
+        <v>0.1202735761534576</v>
       </c>
       <c r="AF20" t="n">
         <v>0.005101681710295304</v>
       </c>
       <c r="AG20" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2608,13 +2608,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0846648792895075</v>
+        <v>0.06683118177761183</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05090547075718926</v>
+        <v>0.05109813028974211</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0002817320319629621</v>
+        <v>0.0002726237377671927</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -2656,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>120</v>
@@ -2683,17 +2683,17 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>0.06114476105219446</v>
+        <v>0.1177386044058978</v>
       </c>
       <c r="AF21" t="n">
         <v>0.005393211541889114</v>
       </c>
       <c r="AG21" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2713,13 +2713,13 @@
         <v>-0.000625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04278590211031193</v>
+        <v>0.09290391057144712</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04823521024484088</v>
+        <v>0.05097844912617895</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0002845787968767183</v>
+        <v>0.0002730219827217517</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2761,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>120</v>
@@ -2788,17 +2788,17 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>0.05350768904129741</v>
+        <v>0.1228401522303609</v>
       </c>
       <c r="AF22" t="n">
         <v>0.00568460021300261</v>
       </c>
       <c r="AG22" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2818,13 +2818,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05567512197711777</v>
+        <v>0.08291801776632363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04305159256625588</v>
+        <v>0.04953594261343068</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0002839989594979024</v>
+        <v>0.0002748825745416441</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2866,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>120</v>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>0.04906083071874569</v>
+        <v>0.1204788081583832</v>
       </c>
       <c r="AF23" t="n">
         <v>0.005975866688449988</v>
       </c>
       <c r="AG23" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2923,13 +2923,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0614374806498119</v>
+        <v>0.0797304057180388</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04579738428813349</v>
+        <v>0.04519338705769702</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0002859362686881916</v>
+        <v>0.00027648287709666</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2971,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>120</v>
@@ -2998,17 +2998,17 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>0.05065156510076754</v>
+        <v>0.1191963502624022</v>
       </c>
       <c r="AF24" t="n">
         <v>0.00626699700686289</v>
       </c>
       <c r="AG24" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3028,13 +3028,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09175258444842178</v>
+        <v>0.09698035612846154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05187140150281065</v>
+        <v>0.04950623461935742</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00028743107201662</v>
+        <v>0.0002787711020005231</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -3076,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>120</v>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>0.05709129064325553</v>
+        <v>0.1239146219275478</v>
       </c>
       <c r="AF25" t="n">
         <v>0.006557980366834047</v>
       </c>
       <c r="AG25" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3133,13 +3133,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07614108208945902</v>
+        <v>0.1030441389734955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05272978068735744</v>
+        <v>0.05207773457660346</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0002881640091617848</v>
+        <v>0.0002788508126679293</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -3181,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>120</v>
@@ -3208,17 +3208,17 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>0.05794953013637844</v>
+        <v>0.1303840863383617</v>
       </c>
       <c r="AF26" t="n">
         <v>0.006848785725417059</v>
       </c>
       <c r="AG26" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3238,13 +3238,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0699469496304809</v>
+        <v>0.1050006387663884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04608051273250414</v>
+        <v>0.04532653348932794</v>
       </c>
       <c r="H27" t="n">
-        <v>0.000291018583004455</v>
+        <v>0.0002813773213401774</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -3286,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>120</v>
@@ -3313,17 +3313,17 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>0.05128638810186835</v>
+        <v>0.1228113526480281</v>
       </c>
       <c r="AF27" t="n">
         <v>0.007139343835434949</v>
       </c>
       <c r="AG27" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3343,13 +3343,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1057561716042622</v>
+        <v>0.1225949607956582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04884906987823098</v>
+        <v>0.05041989973010523</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002917339617873584</v>
+        <v>0.000282646221157708</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -3391,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>120</v>
@@ -3418,17 +3418,17 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>0.05129928500317994</v>
+        <v>0.1200837056351705</v>
       </c>
       <c r="AF28" t="n">
         <v>0.007429672231614669</v>
       </c>
       <c r="AG28" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3448,13 +3448,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1301760763767931</v>
+        <v>0.1448867105225271</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05049656513847391</v>
+        <v>0.05363487925179018</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0002957401696222051</v>
+        <v>0.0002866603027744123</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -3496,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>120</v>
@@ -3523,17 +3523,17 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>0.05614772828898582</v>
+        <v>0.1319899305828813</v>
       </c>
       <c r="AF29" t="n">
         <v>0.007719861208897987</v>
       </c>
       <c r="AG29" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3553,13 +3553,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1506422257740953</v>
+        <v>0.1533770012101666</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04838744053188498</v>
+        <v>0.05833109459423275</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0002978278319002485</v>
+        <v>0.0002888893775793694</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -3601,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>120</v>
@@ -3628,17 +3628,17 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>0.05974915310211178</v>
+        <v>0.1393186496324103</v>
       </c>
       <c r="AF30" t="n">
         <v>0.008009747283939044</v>
       </c>
       <c r="AG30" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3658,13 +3658,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1878856510973284</v>
+        <v>0.2156825297948096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05288908111508341</v>
+        <v>0.05835090590493049</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0003013296670597441</v>
+        <v>0.0002915520190832356</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -3706,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>120</v>
@@ -3733,17 +3733,17 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>0.05724098132536806</v>
+        <v>0.1491751557320692</v>
       </c>
       <c r="AF31" t="n">
         <v>0.008299456036458841</v>
       </c>
       <c r="AG31" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3763,13 +3763,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2714546717412984</v>
+        <v>0.2590556930059474</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05086939343929461</v>
+        <v>0.05844727028015451</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0003088533963222146</v>
+        <v>0.0002997184141911398</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -3811,10 +3811,10 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>120</v>
@@ -3838,17 +3838,17 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>0.05830402631985099</v>
+        <v>0.1532164466467745</v>
       </c>
       <c r="AF32" t="n">
         <v>0.00858879184594641</v>
       </c>
       <c r="AG32" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3868,13 +3868,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3822215894979859</v>
+        <v>0.3555168969006461</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05552981266430723</v>
+        <v>0.05887445548708479</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0003220019958973222</v>
+        <v>0.0003116433503970234</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -3916,10 +3916,10 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>120</v>
@@ -3943,17 +3943,17 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>0.06495350823628604</v>
+        <v>0.1738163247503492</v>
       </c>
       <c r="AF33" t="n">
         <v>0.008877879897123431</v>
       </c>
       <c r="AG33" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3973,13 +3973,13 @@
         <v>-0.000703125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5662365886528147</v>
+        <v>0.6172586911667445</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05084154582544288</v>
+        <v>0.04874590225026868</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000341185393628949</v>
+        <v>0.0003232404613713097</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -4021,16 +4021,16 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="X34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y34" t="n">
-        <v>400</v>
+        <v>246</v>
       </c>
       <c r="Z34" t="n">
         <v>2</v>
@@ -4048,17 +4048,17 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>0.05960791307720424</v>
+        <v>0.1269478988909661</v>
       </c>
       <c r="AF34" t="n">
         <v>0.009166711083625869</v>
       </c>
       <c r="AG34" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4078,13 +4078,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F35" t="n">
-        <v>1.02744722726985</v>
+        <v>1.111434321943296</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06605933374259081</v>
+        <v>0.06654292622874805</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0003982237065797988</v>
+        <v>0.0003624299259517576</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -4126,16 +4126,16 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="X35" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y35" t="n">
-        <v>400</v>
+        <v>246</v>
       </c>
       <c r="Z35" t="n">
         <v>2</v>
@@ -4153,17 +4153,17 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>0.08721292245745318</v>
+        <v>0.1547283019047085</v>
       </c>
       <c r="AF35" t="n">
         <v>0.00945514894295787</v>
       </c>
       <c r="AG35" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4183,13 +4183,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F36" t="n">
-        <v>2.466271835178299</v>
+        <v>2.630499140860354</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07957380218535742</v>
+        <v>0.1025161056027936</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0005328021978021978</v>
+        <v>0.0004760663281195381</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -4231,16 +4231,16 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W36" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="X36" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y36" t="n">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="Z36" t="n">
         <v>2</v>
@@ -4258,17 +4258,17 @@
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>0.1142795049896475</v>
+        <v>0.2206179964242447</v>
       </c>
       <c r="AF36" t="n">
         <v>0.009743266832289132</v>
       </c>
       <c r="AG36" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4288,13 +4288,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F37" t="n">
-        <v>9.137278134643649</v>
+        <v>316.313201947379</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5762358470695149</v>
+        <v>21.18288167517701</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0009698214036196458</v>
+        <v>0.002150355785928223</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -4336,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W37" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X37" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y37" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z37" t="n">
         <v>2</v>
@@ -4363,17 +4363,17 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>0.7769337422124647</v>
+        <v>29.7557562069466</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0100309779327597</v>
       </c>
       <c r="AG37" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4393,13 +4393,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F38" t="n">
-        <v>95910.33108163434</v>
+        <v>95749.02476473671</v>
       </c>
       <c r="G38" t="n">
-        <v>244.3193372937309</v>
+        <v>222.6536155149417</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2959681001938033</v>
+        <v>0.07145634533579684</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -4438,19 +4438,19 @@
         <v>3.697421966131398e-05</v>
       </c>
       <c r="U38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W38" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X38" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y38" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z38" t="n">
         <v>2</v>
@@ -4468,17 +4468,17 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>237.8111222685276</v>
+        <v>317.9313402897287</v>
       </c>
       <c r="AF38" t="n">
         <v>0.01031832868477658</v>
       </c>
       <c r="AG38" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4498,13 +4498,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F39" t="n">
-        <v>10.48950920896432</v>
+        <v>-384.2689460127888</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3409672920650652</v>
+        <v>119.6966770668493</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001953075338975339</v>
+        <v>0.1706639802868804</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -4546,16 +4546,16 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W39" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X39" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y39" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z39" t="n">
         <v>2</v>
@@ -4573,17 +4573,17 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>0.6100091554823772</v>
+        <v>1337.640143581306</v>
       </c>
       <c r="AF39" t="n">
         <v>0.01060528634485899</v>
       </c>
       <c r="AG39" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4603,13 +4603,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F40" t="n">
-        <v>1.839224460880482</v>
+        <v>1.996909137288126</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08528241636981106</v>
+        <v>0.1548786210945777</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0006429306249889636</v>
+        <v>0.0006924308808424569</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -4651,16 +4651,16 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W40" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X40" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y40" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z40" t="n">
         <v>2</v>
@@ -4678,17 +4678,17 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>0.1145803493708675</v>
+        <v>0.285170065257351</v>
       </c>
       <c r="AF40" t="n">
         <v>0.01089177415282423</v>
       </c>
       <c r="AG40" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4708,13 +4708,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6084867007472529</v>
+        <v>0.7370613716013223</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03024718574570079</v>
+        <v>0.0545397458742878</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0004132163579512347</v>
+        <v>0.0003947367777762825</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -4756,16 +4756,16 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W41" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X41" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y41" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z41" t="n">
         <v>2</v>
@@ -4783,17 +4783,17 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>0.03698693959718991</v>
+        <v>0.1320619435061224</v>
       </c>
       <c r="AF41" t="n">
         <v>0.01117777287134961</v>
       </c>
       <c r="AG41" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4813,13 +4813,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2936462848877062</v>
+        <v>0.3775148780549745</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02134157667030225</v>
+        <v>0.03848275116261772</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0003463250110449015</v>
+        <v>0.0003263053903862362</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -4861,16 +4861,16 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W42" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X42" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y42" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z42" t="n">
         <v>2</v>
@@ -4888,17 +4888,17 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>0.03273246391847421</v>
+        <v>0.139589728584956</v>
       </c>
       <c r="AF42" t="n">
         <v>0.01146322545043837</v>
       </c>
       <c r="AG42" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4918,13 +4918,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1734825538030717</v>
+        <v>0.2638764886905004</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02930126466156225</v>
+        <v>0.04756878776761384</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0003051253418055422</v>
+        <v>0.0002849796746712143</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -4966,16 +4966,16 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W43" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X43" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y43" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z43" t="n">
         <v>2</v>
@@ -4993,17 +4993,17 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>0.03478525618030711</v>
+        <v>0.1025487787046178</v>
       </c>
       <c r="AF43" t="n">
         <v>0.01174822448954057</v>
       </c>
       <c r="AG43" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5023,13 +5023,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1062819823181862</v>
+        <v>0.1568111503098943</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0277114581370771</v>
+        <v>0.03953048625817696</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0002842042632881104</v>
+        <v>0.0002659858962003597</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -5071,16 +5071,16 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W44" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X44" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y44" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z44" t="n">
         <v>2</v>
@@ -5098,17 +5098,17 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>0.03279684515484053</v>
+        <v>0.09544363380344689</v>
       </c>
       <c r="AF44" t="n">
         <v>0.0120326871026753</v>
       </c>
       <c r="AG44" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5128,13 +5128,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07879471194882627</v>
+        <v>0.1197117105036881</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02852902059795393</v>
+        <v>0.03233753952337218</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0002649230072903446</v>
+        <v>0.0002536081811498539</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -5176,16 +5176,16 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W45" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X45" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y45" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z45" t="n">
         <v>2</v>
@@ -5203,17 +5203,17 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>0.02861710900718338</v>
+        <v>0.08672180578787174</v>
       </c>
       <c r="AF45" t="n">
         <v>0.01231645592062328</v>
       </c>
       <c r="AG45" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5233,13 +5233,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05221907815329555</v>
+        <v>0.0883551695782519</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02181409160343193</v>
+        <v>0.03669597684540897</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002595577774607295</v>
+        <v>0.0002443933637556948</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -5281,16 +5281,16 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W46" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X46" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y46" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z46" t="n">
         <v>2</v>
@@ -5308,17 +5308,17 @@
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>0.0265601798450627</v>
+        <v>0.08086283332728057</v>
       </c>
       <c r="AF46" t="n">
         <v>0.01259978099536829</v>
       </c>
       <c r="AG46" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5338,13 +5338,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05150658959888991</v>
+        <v>0.0793845045872507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02395616941140329</v>
+        <v>0.03572944954348665</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002479499293350684</v>
+        <v>0.0002354932095634411</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -5386,16 +5386,16 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W47" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y47" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z47" t="n">
         <v>2</v>
@@ -5413,17 +5413,17 @@
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>0.02652390799039291</v>
+        <v>0.08029166011482719</v>
       </c>
       <c r="AF47" t="n">
         <v>0.01288237003178895</v>
       </c>
       <c r="AG47" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5443,13 +5443,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05085398419726275</v>
+        <v>0.08581063411295586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02659649494611005</v>
+        <v>0.03817469781762103</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0002418816070634208</v>
+        <v>0.0002303101608352863</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -5491,16 +5491,16 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="W48" t="n">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="X48" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y48" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z48" t="n">
         <v>2</v>
@@ -5518,17 +5518,17 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>0.02755978230352253</v>
+        <v>0.07506196380497304</v>
       </c>
       <c r="AF48" t="n">
         <v>0.01316418543166263</v>
       </c>
       <c r="AG48" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5548,13 +5548,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03307278862684075</v>
+        <v>0.02123910526682641</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02363109703054185</v>
+        <v>0.03250720381320851</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002387622428467559</v>
+        <v>0.0002383948795234443</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -5599,13 +5599,13 @@
         <v>65</v>
       </c>
       <c r="W49" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="X49" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="Y49" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z49" t="n">
         <v>2</v>
@@ -5623,17 +5623,17 @@
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>0.0264407949459754</v>
+        <v>0.04206420724836923</v>
       </c>
       <c r="AF49" t="n">
         <v>0.01344538484793423</v>
       </c>
       <c r="AG49" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5653,13 +5653,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04376815902952562</v>
+        <v>0.01833779164974378</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02554594282902289</v>
+        <v>0.02762915010094429</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0002323684259662863</v>
+        <v>0.0002315635731333301</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -5704,13 +5704,13 @@
         <v>65</v>
       </c>
       <c r="W50" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="X50" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="Y50" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z50" t="n">
         <v>2</v>
@@ -5728,17 +5728,17 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>0.02826530708253469</v>
+        <v>0.0333947481170919</v>
       </c>
       <c r="AF50" t="n">
         <v>0.01372585148477921</v>
       </c>
       <c r="AG50" t="n">
-        <v>-35</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="51">
@@ -5758,13 +5758,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0264290900355694</v>
+        <v>0.02426505952039018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02231262667761866</v>
+        <v>0.03281341004002246</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0002247420781923846</v>
+        <v>0.0002253089807492083</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -5809,13 +5809,13 @@
         <v>65</v>
       </c>
       <c r="W51" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="X51" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="Y51" t="n">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="Z51" t="n">
         <v>2</v>
@@ -5833,17 +5833,2222 @@
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>vincent</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>0.02563135950680018</v>
+        <v>0.0393174038424108</v>
       </c>
       <c r="AF51" t="n">
         <v>0.01400544596003308</v>
       </c>
       <c r="AG51" t="n">
-        <v>-35</v>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.586953125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01160003081164419</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03448325044852299</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0002267545053787523</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.69998821412326</v>
+      </c>
+      <c r="L52" t="n">
+        <v>40.093</v>
+      </c>
+      <c r="M52" t="n">
+        <v>90</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>24.0483875</v>
+      </c>
+      <c r="P52" t="n">
+        <v>17.932325</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>90584</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>65</v>
+      </c>
+      <c r="W52" t="n">
+        <v>86</v>
+      </c>
+      <c r="X52" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.04078864364124804</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.01428418560140011</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.585</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.004500512148603898</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02756491697318644</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0002246482979137438</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.74998161700885</v>
+      </c>
+      <c r="L53" t="n">
+        <v>40.68565000000001</v>
+      </c>
+      <c r="M53" t="n">
+        <v>90</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>24.5207625</v>
+      </c>
+      <c r="P53" t="n">
+        <v>17.9199</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>90571</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>65</v>
+      </c>
+      <c r="W53" t="n">
+        <v>86</v>
+      </c>
+      <c r="X53" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.03412854453193988</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.01456205218638635</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.5909375</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01584756904481133</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02831660118739321</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0002208278111527066</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.799999972796035</v>
+      </c>
+      <c r="L54" t="n">
+        <v>41.29310000000001</v>
+      </c>
+      <c r="M54" t="n">
+        <v>90</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>24.9949875</v>
+      </c>
+      <c r="P54" t="n">
+        <v>17.9050625</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>90856</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>65</v>
+      </c>
+      <c r="W54" t="n">
+        <v>86</v>
+      </c>
+      <c r="X54" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.0308971157000648</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.014839149746727</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.5873437500000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01193857096046969</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02812218009329102</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0002178064957862713</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.849998220775606</v>
+      </c>
+      <c r="L55" t="n">
+        <v>41.9152</v>
+      </c>
+      <c r="M55" t="n">
+        <v>90</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>25.4707375</v>
+      </c>
+      <c r="P55" t="n">
+        <v>17.887325</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>91603</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>65</v>
+      </c>
+      <c r="W55" t="n">
+        <v>86</v>
+      </c>
+      <c r="X55" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.03500953250804797</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.01511517331133291</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.589375</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01480396412385132</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0344646335140705</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0002176266154960011</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.899990503564362</v>
+      </c>
+      <c r="L56" t="n">
+        <v>42.552425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>90</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>25.94815</v>
+      </c>
+      <c r="P56" t="n">
+        <v>17.8663125</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>90013</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>65</v>
+      </c>
+      <c r="W56" t="n">
+        <v>86</v>
+      </c>
+      <c r="X56" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.04206193343255842</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.01539010585544142</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.5739062500000001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01442001404798264</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02889807999156284</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0002155427811010822</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.950003811929659</v>
+      </c>
+      <c r="L57" t="n">
+        <v>43.20542500000001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>90</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>26.4276</v>
+      </c>
+      <c r="P57" t="n">
+        <v>17.8421</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>90850</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>65</v>
+      </c>
+      <c r="W57" t="n">
+        <v>86</v>
+      </c>
+      <c r="X57" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.03375890282408303</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.01566413067283448</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.59140625</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01655270049963092</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03289045203824389</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.000214793851164561</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.000011703727758</v>
+      </c>
+      <c r="L58" t="n">
+        <v>43.874075</v>
+      </c>
+      <c r="M58" t="n">
+        <v>90</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>26.908775</v>
+      </c>
+      <c r="P58" t="n">
+        <v>17.8143375</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>90017</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>65</v>
+      </c>
+      <c r="W58" t="n">
+        <v>86</v>
+      </c>
+      <c r="X58" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.03695855875315981</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.01593697164210393</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.5821875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01287534545602416</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03129613448375958</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0002138088692277964</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.049980189948096</v>
+      </c>
+      <c r="L59" t="n">
+        <v>44.55885000000001</v>
+      </c>
+      <c r="M59" t="n">
+        <v>90</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>27.3918125</v>
+      </c>
+      <c r="P59" t="n">
+        <v>17.7827875</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>89935</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>65</v>
+      </c>
+      <c r="W59" t="n">
+        <v>86</v>
+      </c>
+      <c r="X59" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.03718449410460145</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.01620863056210001</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.5903125</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.007634579083640014</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03041914732840344</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.000215975708927441</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.099990225104579</v>
+      </c>
+      <c r="L60" t="n">
+        <v>45.26065000000001</v>
+      </c>
+      <c r="M60" t="n">
+        <v>90</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>27.87715</v>
+      </c>
+      <c r="P60" t="n">
+        <v>17.7472</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>89311</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>65</v>
+      </c>
+      <c r="W60" t="n">
+        <v>86</v>
+      </c>
+      <c r="X60" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.03604421360411075</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.0164792767436571</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.592890625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9.587927809848185e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0293291637580602</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0002140201136161712</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.149987839202876</v>
+      </c>
+      <c r="L61" t="n">
+        <v>45.979075</v>
+      </c>
+      <c r="M61" t="n">
+        <v>90</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>28.364275</v>
+      </c>
+      <c r="P61" t="n">
+        <v>17.7073</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>91946</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>65</v>
+      </c>
+      <c r="W61" t="n">
+        <v>86</v>
+      </c>
+      <c r="X61" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.03454661388723191</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.01674853618580725</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.581015625</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.00227869233058315</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03041482626593658</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0002155086945308865</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.200002349843249</v>
+      </c>
+      <c r="L62" t="n">
+        <v>46.71525</v>
+      </c>
+      <c r="M62" t="n">
+        <v>90</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>28.8537375</v>
+      </c>
+      <c r="P62" t="n">
+        <v>17.6628625</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>91032</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>65</v>
+      </c>
+      <c r="W62" t="n">
+        <v>86</v>
+      </c>
+      <c r="X62" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.03578891414706196</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0.01701664575733711</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.587734375</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0004615815303956605</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03098783436360932</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0002144908899104624</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.250006684077497</v>
+      </c>
+      <c r="L63" t="n">
+        <v>47.46905</v>
+      </c>
+      <c r="M63" t="n">
+        <v>90</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>29.3450375</v>
+      </c>
+      <c r="P63" t="n">
+        <v>17.61325</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>91191</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="b">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>65</v>
+      </c>
+      <c r="W63" t="n">
+        <v>86</v>
+      </c>
+      <c r="X63" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.03680844633730744</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0.01728319189579479</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.586171875</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0005156467728352557</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03591820975645529</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0002179173603090783</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.299985501301866</v>
+      </c>
+      <c r="L64" t="n">
+        <v>48.241425</v>
+      </c>
+      <c r="M64" t="n">
+        <v>90</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>29.8386625</v>
+      </c>
+      <c r="P64" t="n">
+        <v>17.5583125</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>90516</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="b">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>65</v>
+      </c>
+      <c r="W64" t="n">
+        <v>86</v>
+      </c>
+      <c r="X64" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE64" t="n">
+        <v>0.04265609142586059</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0.0175483878919428</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.58078125</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01411349181604747</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02674777695578947</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0002144329717022947</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.349970737050941</v>
+      </c>
+      <c r="L65" t="n">
+        <v>49.0333</v>
+      </c>
+      <c r="M65" t="n">
+        <v>90</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>30.3348125</v>
+      </c>
+      <c r="P65" t="n">
+        <v>17.497525</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>89955</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>65</v>
+      </c>
+      <c r="W65" t="n">
+        <v>86</v>
+      </c>
+      <c r="X65" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.03625922052459175</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.01781222953708385</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.581171875</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.002235285831962419</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.02889741408885714</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0002162793660281577</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.400016015008965</v>
+      </c>
+      <c r="L66" t="n">
+        <v>49.84497500000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>90</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>30.8334125</v>
+      </c>
+      <c r="P66" t="n">
+        <v>17.430675</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>91298</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>65</v>
+      </c>
+      <c r="W66" t="n">
+        <v>86</v>
+      </c>
+      <c r="X66" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.03360491455188747</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0.01807460951695382</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.5896875</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0112326643026261</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03492046457265899</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0002184491894306464</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.449989284016248</v>
+      </c>
+      <c r="L67" t="n">
+        <v>50.67685</v>
+      </c>
+      <c r="M67" t="n">
+        <v>90</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>31.334325</v>
+      </c>
+      <c r="P67" t="n">
+        <v>17.3572</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>91228</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>65</v>
+      </c>
+      <c r="W67" t="n">
+        <v>86</v>
+      </c>
+      <c r="X67" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.04035722042126912</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0.01833533978244691</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.5871875</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01828371527050776</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03136873050121229</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0002174202466470541</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.500012087085825</v>
+      </c>
+      <c r="L68" t="n">
+        <v>51.52985</v>
+      </c>
+      <c r="M68" t="n">
+        <v>90</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>31.83775</v>
+      </c>
+      <c r="P68" t="n">
+        <v>17.276625</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>90256</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>65</v>
+      </c>
+      <c r="W68" t="n">
+        <v>86</v>
+      </c>
+      <c r="X68" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.0397505619848881</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0.0185944328516533</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.5921875</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.02690605271513433</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0355348740267374</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0002197923596264416</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.549978895841876</v>
+      </c>
+      <c r="L69" t="n">
+        <v>52.40485</v>
+      </c>
+      <c r="M69" t="n">
+        <v>90</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>32.3437</v>
+      </c>
+      <c r="P69" t="n">
+        <v>17.1882625</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>90227</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>65</v>
+      </c>
+      <c r="W69" t="n">
+        <v>86</v>
+      </c>
+      <c r="X69" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.04353209260878627</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0.01885177205728208</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.58421875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.02286671857393395</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0312295099169916</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0002229243296185334</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.599997095962363</v>
+      </c>
+      <c r="L70" t="n">
+        <v>53.303125</v>
+      </c>
+      <c r="M70" t="n">
+        <v>90</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>32.8526</v>
+      </c>
+      <c r="P70" t="n">
+        <v>17.0917</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>90158</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="b">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>65</v>
+      </c>
+      <c r="W70" t="n">
+        <v>86</v>
+      </c>
+      <c r="X70" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.03889831904573888</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0.01910750496657658</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.586953125</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.02663781661744244</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02925802482472363</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0002247108483670509</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.649989781390765</v>
+      </c>
+      <c r="L71" t="n">
+        <v>54.225375</v>
+      </c>
+      <c r="M71" t="n">
+        <v>90</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>33.3642875</v>
+      </c>
+      <c r="P71" t="n">
+        <v>16.9862625</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>90525</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="b">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>65</v>
+      </c>
+      <c r="W71" t="n">
+        <v>86</v>
+      </c>
+      <c r="X71" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.03667676683969844</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0.01936143228450777</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.5878125</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.000703125</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.03275918584089961</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03080661044210855</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0002315802811312316</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3.699987832535496</v>
+      </c>
+      <c r="L72" t="n">
+        <v>55.17227500000001</v>
+      </c>
+      <c r="M72" t="n">
+        <v>90</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>33.8786375</v>
+      </c>
+      <c r="P72" t="n">
+        <v>16.871225</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>89943</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="b">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>65</v>
+      </c>
+      <c r="W72" t="n">
+        <v>86</v>
+      </c>
+      <c r="X72" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.03843676598678051</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0.01961337738772106</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG72"/>
+  <dimension ref="A1:AG108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +616,7 @@
         <v>0.09721576304624097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04125126191330538</v>
+        <v>0.01162994378862035</v>
       </c>
       <c r="H2" t="n">
         <v>0.0002542914692872765</v>
@@ -721,7 +721,7 @@
         <v>0.3604410818283874</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05300394812593208</v>
+        <v>0.0122455345470943</v>
       </c>
       <c r="H3" t="n">
         <v>0.0002772119912235288</v>
@@ -826,7 +826,7 @@
         <v>0.5016013013753848</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04900457046083301</v>
+        <v>0.01246786585636514</v>
       </c>
       <c r="H4" t="n">
         <v>0.0002878072665654365</v>
@@ -931,7 +931,7 @@
         <v>0.4685319849791202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05433813830395584</v>
+        <v>0.01256876271512265</v>
       </c>
       <c r="H5" t="n">
         <v>0.0002923564553438407</v>
@@ -1036,7 +1036,7 @@
         <v>0.3231612215533674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04710827659715244</v>
+        <v>0.01248193294999907</v>
       </c>
       <c r="H6" t="n">
         <v>0.0002897783946061783</v>
@@ -1141,7 +1141,7 @@
         <v>0.2358807239767866</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05373298183579019</v>
+        <v>0.01244314849961543</v>
       </c>
       <c r="H7" t="n">
         <v>0.0002867624075509777</v>
@@ -1246,7 +1246,7 @@
         <v>0.1752532632878965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05666028735649346</v>
+        <v>0.01236022876837242</v>
       </c>
       <c r="H8" t="n">
         <v>0.0002824059200833066</v>
@@ -1351,7 +1351,7 @@
         <v>0.1601861918720787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04852358814720904</v>
+        <v>0.01231889538465378</v>
       </c>
       <c r="H9" t="n">
         <v>0.0002798863829567043</v>
@@ -1456,7 +1456,7 @@
         <v>0.1246096315346143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05296435373276343</v>
+        <v>0.01220021651998308</v>
       </c>
       <c r="H10" t="n">
         <v>0.0002757035486516593</v>
@@ -1561,7 +1561,7 @@
         <v>0.1221997738995097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05700488559693473</v>
+        <v>0.01222720232674501</v>
       </c>
       <c r="H11" t="n">
         <v>0.000275556539765143</v>
@@ -1666,7 +1666,7 @@
         <v>0.09074415077719829</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04083701844053463</v>
+        <v>0.01222490020518111</v>
       </c>
       <c r="H12" t="n">
         <v>0.0002756911609827324</v>
@@ -1771,7 +1771,7 @@
         <v>0.1057960615614632</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05055945498855801</v>
+        <v>0.01218621014638006</v>
       </c>
       <c r="H13" t="n">
         <v>0.0002723328105967581</v>
@@ -1876,7 +1876,7 @@
         <v>0.08203446122634632</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04782319831993857</v>
+        <v>0.01205093706311202</v>
       </c>
       <c r="H14" t="n">
         <v>0.0002685630121605095</v>
@@ -1981,7 +1981,7 @@
         <v>0.08663175493770531</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04755060219320809</v>
+        <v>0.01204122171330466</v>
       </c>
       <c r="H15" t="n">
         <v>0.0002680029845205473</v>
@@ -2086,7 +2086,7 @@
         <v>0.08195919090109033</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04690142569321648</v>
+        <v>0.01211990127734316</v>
       </c>
       <c r="H16" t="n">
         <v>0.0002696380146021228</v>
@@ -2191,7 +2191,7 @@
         <v>0.07322718014511045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05390076501814485</v>
+        <v>0.01203578002077278</v>
       </c>
       <c r="H17" t="n">
         <v>0.0002665056537893042</v>
@@ -2296,7 +2296,7 @@
         <v>0.08736425290719792</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04868541168932768</v>
+        <v>0.01216657094402213</v>
       </c>
       <c r="H18" t="n">
         <v>0.0002695757899263082</v>
@@ -2401,7 +2401,7 @@
         <v>0.08470383183684116</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04810355329359534</v>
+        <v>0.01216997741399639</v>
       </c>
       <c r="H19" t="n">
         <v>0.0002700411257971357</v>
@@ -2506,7 +2506,7 @@
         <v>0.07920014823169345</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04242965664545872</v>
+        <v>0.01214478109778711</v>
       </c>
       <c r="H20" t="n">
         <v>0.000270289764482096</v>
@@ -2611,7 +2611,7 @@
         <v>0.06683118177761183</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05109813028974211</v>
+        <v>0.01225460562095981</v>
       </c>
       <c r="H21" t="n">
         <v>0.0002726237377671927</v>
@@ -2716,7 +2716,7 @@
         <v>0.09290391057144712</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05097844912617895</v>
+        <v>0.01219179608534886</v>
       </c>
       <c r="H22" t="n">
         <v>0.0002730219827217517</v>
@@ -2821,7 +2821,7 @@
         <v>0.08291801776632363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04953594261343068</v>
+        <v>0.01227861510855281</v>
       </c>
       <c r="H23" t="n">
         <v>0.0002748825745416441</v>
@@ -2926,7 +2926,7 @@
         <v>0.0797304057180388</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04519338705769702</v>
+        <v>0.01232721242359966</v>
       </c>
       <c r="H24" t="n">
         <v>0.00027648287709666</v>
@@ -3031,7 +3031,7 @@
         <v>0.09698035612846154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04950623461935742</v>
+        <v>0.01235423046084614</v>
       </c>
       <c r="H25" t="n">
         <v>0.0002787711020005231</v>
@@ -3136,7 +3136,7 @@
         <v>0.1030441389734955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05207773457660346</v>
+        <v>0.01233337338041083</v>
       </c>
       <c r="H26" t="n">
         <v>0.0002788508126679293</v>
@@ -3241,7 +3241,7 @@
         <v>0.1050006387663884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04532653348932794</v>
+        <v>0.01241099846469211</v>
       </c>
       <c r="H27" t="n">
         <v>0.0002813773213401774</v>
@@ -3346,7 +3346,7 @@
         <v>0.1225949607956582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05041989973010523</v>
+        <v>0.01241400875595612</v>
       </c>
       <c r="H28" t="n">
         <v>0.000282646221157708</v>
@@ -3451,7 +3451,7 @@
         <v>0.1448867105225271</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05363487925179018</v>
+        <v>0.01252266940705953</v>
       </c>
       <c r="H29" t="n">
         <v>0.0002866603027744123</v>
@@ -3556,7 +3556,7 @@
         <v>0.1533770012101666</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05833109459423275</v>
+        <v>0.01256821007622211</v>
       </c>
       <c r="H30" t="n">
         <v>0.0002888893775793694</v>
@@ -3661,7 +3661,7 @@
         <v>0.2156825297948096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05835090590493049</v>
+        <v>0.01266592969769577</v>
       </c>
       <c r="H31" t="n">
         <v>0.0002915520190832356</v>
@@ -3766,7 +3766,7 @@
         <v>0.2590556930059474</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05844727028015451</v>
+        <v>0.01286454488785907</v>
       </c>
       <c r="H32" t="n">
         <v>0.0002997184141911398</v>
@@ -3871,7 +3871,7 @@
         <v>0.3555168969006461</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05887445548708479</v>
+        <v>0.01319893272818877</v>
       </c>
       <c r="H33" t="n">
         <v>0.0003116433503970234</v>
@@ -3973,13 +3973,13 @@
         <v>-0.000703125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6172586911667445</v>
+        <v>0.5531797749806576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04874590225026868</v>
+        <v>0.01365580082649834</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0003232404613713097</v>
+        <v>0.0003284344977685932</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -4021,16 +4021,16 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W34" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y34" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z34" t="n">
         <v>2</v>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>0.1269478988909661</v>
+        <v>0.1966410622145586</v>
       </c>
       <c r="AF34" t="n">
         <v>0.009166711083625869</v>
@@ -4078,13 +4078,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F35" t="n">
-        <v>1.111434321943296</v>
+        <v>0.9859567415288991</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06654292622874805</v>
+        <v>0.01520676270804362</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0003624299259517576</v>
+        <v>0.0003826211951150255</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -4126,16 +4126,16 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W35" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y35" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z35" t="n">
         <v>2</v>
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>0.1547283019047085</v>
+        <v>0.265449992658868</v>
       </c>
       <c r="AF35" t="n">
         <v>0.00945514894295787</v>
@@ -4183,13 +4183,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F36" t="n">
-        <v>2.630499140860354</v>
+        <v>-1.773406644409842</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1025161056027936</v>
+        <v>0.0264231151983526</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0004760663281195381</v>
+        <v>0.0007094871794871796</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -4228,19 +4228,19 @@
         <v>1</v>
       </c>
       <c r="U36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W36" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y36" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z36" t="n">
         <v>2</v>
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>0.2206179964242447</v>
+        <v>3.809380452449673</v>
       </c>
       <c r="AF36" t="n">
         <v>0.009743266832289132</v>
@@ -4288,13 +4288,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F37" t="n">
-        <v>316.313201947379</v>
+        <v>150.7336330739903</v>
       </c>
       <c r="G37" t="n">
-        <v>21.18288167517701</v>
+        <v>0.7067234431700088</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002150355785928223</v>
+        <v>0.03783643131868233</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -4336,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W37" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y37" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z37" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>29.7557562069466</v>
+        <v>413.0717048602303</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0100309779327597</v>
@@ -4393,13 +4393,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F38" t="n">
-        <v>95749.02476473671</v>
+        <v>90910.26394393378</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6536155149417</v>
+        <v>169.919425946668</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07145634533579684</v>
+        <v>0.2443876142018438</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -4441,16 +4441,16 @@
         <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W38" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y38" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z38" t="n">
         <v>2</v>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>317.9313402897287</v>
+        <v>5604.441366808064</v>
       </c>
       <c r="AF38" t="n">
         <v>0.01031832868477658</v>
@@ -4498,13 +4498,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F39" t="n">
-        <v>-384.2689460127888</v>
+        <v>-520.7043992215282</v>
       </c>
       <c r="G39" t="n">
-        <v>119.6966770668493</v>
+        <v>1.254412029403331</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1706639802868804</v>
+        <v>0.09521791703244077</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -4543,19 +4543,19 @@
         <v>0.01254329515847652</v>
       </c>
       <c r="U39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W39" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y39" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z39" t="n">
         <v>2</v>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>1337.640143581306</v>
+        <v>1185.89564270528</v>
       </c>
       <c r="AF39" t="n">
         <v>0.01060528634485899</v>
@@ -4603,13 +4603,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F40" t="n">
-        <v>1.996909137288126</v>
+        <v>-21.13684059753044</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1548786210945777</v>
+        <v>0.1330415326295396</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0006924308808424569</v>
+        <v>0.004870145595844431</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -4648,19 +4648,19 @@
         <v>0.06862848217263544</v>
       </c>
       <c r="U40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W40" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y40" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z40" t="n">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>0.285170065257351</v>
+        <v>54.61929698384365</v>
       </c>
       <c r="AF40" t="n">
         <v>0.01089177415282423</v>
@@ -4708,13 +4708,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7370613716013223</v>
+        <v>0.5871196720067828</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0545397458742878</v>
+        <v>0.01478076005175753</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0003947367777762825</v>
+        <v>0.0004278583539717143</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -4756,16 +4756,16 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W41" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y41" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z41" t="n">
         <v>2</v>
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>0.1320619435061224</v>
+        <v>0.1831699639441971</v>
       </c>
       <c r="AF41" t="n">
         <v>0.01117777287134961</v>
@@ -4813,13 +4813,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3775148780549745</v>
+        <v>0.3163506181158344</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03848275116261772</v>
+        <v>0.01319962642204412</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0003263053903862362</v>
+        <v>0.0003300067825872487</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -4861,16 +4861,16 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W42" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y42" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z42" t="n">
         <v>2</v>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>0.139589728584956</v>
+        <v>0.1799632018253123</v>
       </c>
       <c r="AF42" t="n">
         <v>0.01146322545043837</v>
@@ -4918,13 +4918,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2638764886905004</v>
+        <v>0.2358131388089893</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04756878776761384</v>
+        <v>0.01241021640727375</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0002849796746712143</v>
+        <v>0.0002874695868215887</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -4966,16 +4966,16 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W43" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y43" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z43" t="n">
         <v>2</v>
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>0.1025487787046178</v>
+        <v>0.1495514925498824</v>
       </c>
       <c r="AF43" t="n">
         <v>0.01174822448954057</v>
@@ -5023,13 +5023,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1568111503098943</v>
+        <v>0.1430729847775149</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03953048625817696</v>
+        <v>0.01193685643495038</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0002659858962003597</v>
+        <v>0.0002651828885419492</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -5071,16 +5071,16 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W44" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y44" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z44" t="n">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>0.09544363380344689</v>
+        <v>0.1167031168015725</v>
       </c>
       <c r="AF44" t="n">
         <v>0.0120326871026753</v>
@@ -5128,13 +5128,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1197117105036881</v>
+        <v>0.1085922653912863</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03233753952337218</v>
+        <v>0.01172612095767815</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0002536081811498539</v>
+        <v>0.0002527714201769265</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -5176,16 +5176,16 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W45" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y45" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z45" t="n">
         <v>2</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>0.08672180578787174</v>
+        <v>0.1098271370085951</v>
       </c>
       <c r="AF45" t="n">
         <v>0.01231645592062328</v>
@@ -5233,13 +5233,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0883551695782519</v>
+        <v>0.09176556371482915</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03669597684540897</v>
+        <v>0.01145389313618776</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002443933637556948</v>
+        <v>0.0002429222939478728</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -5281,16 +5281,16 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W46" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y46" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z46" t="n">
         <v>2</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>0.08086283332728057</v>
+        <v>0.1030915764322751</v>
       </c>
       <c r="AF46" t="n">
         <v>0.01259978099536829</v>
@@ -5338,13 +5338,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0793845045872507</v>
+        <v>0.07430142031975806</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03572944954348665</v>
+        <v>0.01122537251908725</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002354932095634411</v>
+        <v>0.0002341715331223521</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -5386,16 +5386,16 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W47" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y47" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z47" t="n">
         <v>2</v>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>0.08029166011482719</v>
+        <v>0.107201016331152</v>
       </c>
       <c r="AF47" t="n">
         <v>0.01288237003178895</v>
@@ -5443,13 +5443,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08581063411295586</v>
+        <v>0.07808510274758818</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03817469781762103</v>
+        <v>0.01120659444277958</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0002303101608352863</v>
+        <v>0.0002298433040536961</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -5491,16 +5491,16 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W48" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y48" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z48" t="n">
         <v>2</v>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>0.07506196380497304</v>
+        <v>0.1006804441200171</v>
       </c>
       <c r="AF48" t="n">
         <v>0.01316418543166263</v>
@@ -5548,13 +5548,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02123910526682641</v>
+        <v>0.06525798406884312</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03250720381320851</v>
+        <v>0.01099766523273593</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002383948795234443</v>
+        <v>0.0002230708516886931</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -5596,16 +5596,16 @@
         <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W49" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y49" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z49" t="n">
         <v>2</v>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>0.04206420724836923</v>
+        <v>0.09358988899672031</v>
       </c>
       <c r="AF49" t="n">
         <v>0.01344538484793423</v>
@@ -5653,13 +5653,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01833779164974378</v>
+        <v>0.06602993246581711</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02762915010094429</v>
+        <v>0.01092551548736706</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0002315635731333301</v>
+        <v>0.0002188510879737089</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -5701,16 +5701,16 @@
         <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W50" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y50" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z50" t="n">
         <v>2</v>
@@ -5732,13 +5732,13 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>0.0333947481170919</v>
+        <v>0.09047777440194257</v>
       </c>
       <c r="AF50" t="n">
         <v>0.01372585148477921</v>
       </c>
       <c r="AG50" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5758,13 +5758,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02426505952039018</v>
+        <v>0.06596550439460809</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03281341004002246</v>
+        <v>0.01080925955293777</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0002253089807492083</v>
+        <v>0.0002140861637994413</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -5806,16 +5806,16 @@
         <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W51" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y51" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z51" t="n">
         <v>2</v>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>0.0393174038424108</v>
+        <v>0.08899169672371764</v>
       </c>
       <c r="AF51" t="n">
         <v>0.01400544596003308</v>
       </c>
       <c r="AG51" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5863,13 +5863,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01160003081164419</v>
+        <v>0.0514225180863267</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03448325044852299</v>
+        <v>0.01075495532280893</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0002267545053787523</v>
+        <v>0.0002129067434032991</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -5911,16 +5911,16 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W52" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y52" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z52" t="n">
         <v>2</v>
@@ -5942,13 +5942,13 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>0.04078864364124804</v>
+        <v>0.1013309997626652</v>
       </c>
       <c r="AF52" t="n">
         <v>0.01428418560140011</v>
       </c>
       <c r="AG52" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5968,13 +5968,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.004500512148603898</v>
+        <v>0.04935297199012223</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02756491697318644</v>
+        <v>0.01069894261726593</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0002246482979137438</v>
+        <v>0.0002102702729227776</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -6016,16 +6016,16 @@
         <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W53" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y53" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z53" t="n">
         <v>2</v>
@@ -6047,13 +6047,13 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>0.03412854453193988</v>
+        <v>0.09074725380725533</v>
       </c>
       <c r="AF53" t="n">
         <v>0.01456205218638635</v>
       </c>
       <c r="AG53" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -6073,13 +6073,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01584756904481133</v>
+        <v>0.06187475830617743</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02831660118739321</v>
+        <v>0.0106213111353061</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0002208278111527066</v>
+        <v>0.0002074748319685363</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -6121,16 +6121,16 @@
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W54" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y54" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z54" t="n">
         <v>2</v>
@@ -6152,13 +6152,13 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>0.0308971157000648</v>
+        <v>0.0858922670196806</v>
       </c>
       <c r="AF54" t="n">
         <v>0.014839149746727</v>
       </c>
       <c r="AG54" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6178,13 +6178,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01193857096046969</v>
+        <v>0.04886662970845607</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02812218009329102</v>
+        <v>0.01051021653726085</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0002178064957862713</v>
+        <v>0.0002052013095155787</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -6226,16 +6226,16 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W55" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y55" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z55" t="n">
         <v>2</v>
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>0.03500953250804797</v>
+        <v>0.09295226875678253</v>
       </c>
       <c r="AF55" t="n">
         <v>0.01511517331133291</v>
       </c>
       <c r="AG55" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6283,13 +6283,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01480396412385132</v>
+        <v>0.05492559751178232</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0344646335140705</v>
+        <v>0.0106251728134974</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0002176266154960011</v>
+        <v>0.0002055777128488848</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -6331,16 +6331,16 @@
         <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W56" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y56" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z56" t="n">
         <v>2</v>
@@ -6362,13 +6362,13 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>0.04206193343255842</v>
+        <v>0.09070059253413203</v>
       </c>
       <c r="AF56" t="n">
         <v>0.01539010585544142</v>
       </c>
       <c r="AG56" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6388,13 +6388,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01442001404798264</v>
+        <v>0.04417249658436383</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02889807999156284</v>
+        <v>0.01053511211477001</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0002155427811010822</v>
+        <v>0.0002038836910658595</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -6436,16 +6436,16 @@
         <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W57" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y57" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="n">
         <v>2</v>
@@ -6467,13 +6467,13 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>0.03375890282408303</v>
+        <v>0.09154010697887231</v>
       </c>
       <c r="AF57" t="n">
         <v>0.01566413067283448</v>
       </c>
       <c r="AG57" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6493,13 +6493,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01655270049963092</v>
+        <v>0.06672099915065391</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03289045203824389</v>
+        <v>0.01059527877716798</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000214793851164561</v>
+        <v>0.0002041626705079164</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -6541,16 +6541,16 @@
         <v>1</v>
       </c>
       <c r="V58" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W58" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y58" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z58" t="n">
         <v>2</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>0.03695855875315981</v>
+        <v>0.08794166124048738</v>
       </c>
       <c r="AF58" t="n">
         <v>0.01593697164210393</v>
       </c>
       <c r="AG58" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6598,13 +6598,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01287534545602416</v>
+        <v>0.04640270495753852</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03129613448375958</v>
+        <v>0.01055038976042143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0002138088692277964</v>
+        <v>0.0002019792072052037</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -6646,16 +6646,16 @@
         <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W59" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y59" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z59" t="n">
         <v>2</v>
@@ -6677,13 +6677,13 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>0.03718449410460145</v>
+        <v>0.08840505403480148</v>
       </c>
       <c r="AF59" t="n">
         <v>0.01620863056210001</v>
       </c>
       <c r="AG59" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6703,13 +6703,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F60" t="n">
-        <v>0.007634579083640014</v>
+        <v>0.0431468300265733</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03041914732840344</v>
+        <v>0.01065372842361405</v>
       </c>
       <c r="H60" t="n">
-        <v>0.000215975708927441</v>
+        <v>0.0002051252862966985</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -6751,16 +6751,16 @@
         <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W60" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y60" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z60" t="n">
         <v>2</v>
@@ -6782,13 +6782,13 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>0.03604421360411075</v>
+        <v>0.08448296305003269</v>
       </c>
       <c r="AF60" t="n">
         <v>0.0164792767436571</v>
       </c>
       <c r="AG60" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6808,13 +6808,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F61" t="n">
-        <v>9.587927809848185e-05</v>
+        <v>0.03956232002596007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0293291637580602</v>
+        <v>0.01039278728205595</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0002140201136161712</v>
+        <v>0.0002017053487916821</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -6856,16 +6856,16 @@
         <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W61" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y61" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z61" t="n">
         <v>2</v>
@@ -6887,13 +6887,13 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>0.03454661388723191</v>
+        <v>0.09220762782929556</v>
       </c>
       <c r="AF61" t="n">
         <v>0.01674853618580725</v>
       </c>
       <c r="AG61" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6913,13 +6913,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00227869233058315</v>
+        <v>0.04305498355676858</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03041482626593658</v>
+        <v>0.01052206891003959</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0002155086945308865</v>
+        <v>0.0002036969905576549</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -6961,16 +6961,16 @@
         <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W62" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y62" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z62" t="n">
         <v>2</v>
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>0.03578891414706196</v>
+        <v>0.08853618167189273</v>
       </c>
       <c r="AF62" t="n">
         <v>0.01701664575733711</v>
       </c>
       <c r="AG62" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7018,13 +7018,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0004615815303956605</v>
+        <v>0.04367194298116032</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03098783436360932</v>
+        <v>0.01048525130080815</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0002144908899104624</v>
+        <v>0.0002019802149091224</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -7066,16 +7066,16 @@
         <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W63" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y63" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z63" t="n">
         <v>2</v>
@@ -7097,13 +7097,13 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>0.03680844633730744</v>
+        <v>0.09522521090312537</v>
       </c>
       <c r="AF63" t="n">
         <v>0.01728319189579479</v>
       </c>
       <c r="AG63" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7123,13 +7123,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0005156467728352557</v>
+        <v>0.04472166840018894</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03591820975645529</v>
+        <v>0.0105744075114674</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0002179173603090783</v>
+        <v>0.0002044911642386122</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -7171,16 +7171,16 @@
         <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W64" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y64" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z64" t="n">
         <v>2</v>
@@ -7202,13 +7202,13 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>0.04265609142586059</v>
+        <v>0.09020689682800219</v>
       </c>
       <c r="AF64" t="n">
         <v>0.0175483878919428</v>
       </c>
       <c r="AG64" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7228,13 +7228,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01411349181604747</v>
+        <v>0.04942134881318103</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02674777695578947</v>
+        <v>0.01060283782025255</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0002144329717022947</v>
+        <v>0.0002037352009338003</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -7276,16 +7276,16 @@
         <v>1</v>
       </c>
       <c r="V65" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W65" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y65" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z65" t="n">
         <v>2</v>
@@ -7307,13 +7307,13 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>0.03625922052459175</v>
+        <v>0.08688267878478416</v>
       </c>
       <c r="AF65" t="n">
         <v>0.01781222953708385</v>
       </c>
       <c r="AG65" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7333,13 +7333,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002235285831962419</v>
+        <v>0.04418876246224338</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02889741408885714</v>
+        <v>0.01051768624792471</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0002162793660281577</v>
+        <v>0.000204122154312739</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -7381,16 +7381,16 @@
         <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W66" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y66" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z66" t="n">
         <v>2</v>
@@ -7412,13 +7412,13 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>0.03360491455188747</v>
+        <v>0.08850526467209606</v>
       </c>
       <c r="AF66" t="n">
         <v>0.01807460951695382</v>
       </c>
       <c r="AG66" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7438,13 +7438,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0112326643026261</v>
+        <v>0.0564925401701533</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03492046457265899</v>
+        <v>0.01058554602774276</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0002184491894306464</v>
+        <v>0.0002060204469388054</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -7486,16 +7486,16 @@
         <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W67" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y67" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z67" t="n">
         <v>2</v>
@@ -7517,13 +7517,13 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>0.04035722042126912</v>
+        <v>0.08979748444993073</v>
       </c>
       <c r="AF67" t="n">
         <v>0.01833533978244691</v>
       </c>
       <c r="AG67" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7543,13 +7543,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01828371527050776</v>
+        <v>0.0594185747603188</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03136873050121229</v>
+        <v>0.01060648960988505</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0002174202466470541</v>
+        <v>0.0002046481366581969</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -7591,16 +7591,16 @@
         <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W68" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y68" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z68" t="n">
         <v>2</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>0.0397505619848881</v>
+        <v>0.09481082243528927</v>
       </c>
       <c r="AF68" t="n">
         <v>0.0185944328516533</v>
       </c>
       <c r="AG68" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -7648,13 +7648,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02690605271513433</v>
+        <v>0.06377227187933686</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0355348740267374</v>
+        <v>0.01068197861406827</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0002197923596264416</v>
+        <v>0.0002074637673128147</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -7696,16 +7696,16 @@
         <v>1</v>
       </c>
       <c r="V69" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W69" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y69" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z69" t="n">
         <v>2</v>
@@ -7727,13 +7727,13 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>0.04353209260878627</v>
+        <v>0.09106920599821132</v>
       </c>
       <c r="AF69" t="n">
         <v>0.01885177205728208</v>
       </c>
       <c r="AG69" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7753,13 +7753,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02286671857393395</v>
+        <v>0.05995064957655075</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0312295099169916</v>
+        <v>0.01076007908970971</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0002229243296185334</v>
+        <v>0.0002103732706286002</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -7801,16 +7801,16 @@
         <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W70" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y70" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z70" t="n">
         <v>2</v>
@@ -7832,13 +7832,13 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>0.03889831904573888</v>
+        <v>0.09334728488712755</v>
       </c>
       <c r="AF70" t="n">
         <v>0.01910750496657658</v>
       </c>
       <c r="AG70" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -7858,13 +7858,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02663781661744244</v>
+        <v>0.07713926893237244</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02925802482472363</v>
+        <v>0.01080901491882775</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0002247108483670509</v>
+        <v>0.0002115971646874712</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -7906,16 +7906,16 @@
         <v>1</v>
       </c>
       <c r="V71" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W71" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y71" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z71" t="n">
         <v>2</v>
@@ -7937,13 +7937,13 @@
         </is>
       </c>
       <c r="AE71" t="n">
-        <v>0.03667676683969844</v>
+        <v>0.09202804948025933</v>
       </c>
       <c r="AF71" t="n">
         <v>0.01936143228450777</v>
       </c>
       <c r="AG71" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7963,13 +7963,13 @@
         <v>-0.000703125</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03275918584089961</v>
+        <v>0.07809013398790014</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03080661044210855</v>
+        <v>0.01099955648260741</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0002315802811312316</v>
+        <v>0.0002177020755120218</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -8011,16 +8011,16 @@
         <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W72" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="Y72" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Z72" t="n">
         <v>2</v>
@@ -8042,13 +8042,3793 @@
         </is>
       </c>
       <c r="AE72" t="n">
-        <v>0.03843676598678051</v>
+        <v>0.09938914736682468</v>
       </c>
       <c r="AF72" t="n">
         <v>0.01961337738772106</v>
       </c>
       <c r="AG72" t="n">
-        <v>-20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.587421875</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1190876708249631</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01125272513239657</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0002272779793688724</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3.749988143634768</v>
+      </c>
+      <c r="L73" t="n">
+        <v>56.145675</v>
+      </c>
+      <c r="M73" t="n">
+        <v>90</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>34.3960375</v>
+      </c>
+      <c r="P73" t="n">
+        <v>16.745725</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>90392</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="b">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>40</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.1038327759798606</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0.01986341944333476</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.580546875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1350592097731524</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.01184826808732011</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0002464026741270579</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3.80002310550707</v>
+      </c>
+      <c r="L74" t="n">
+        <v>57.147125</v>
+      </c>
+      <c r="M74" t="n">
+        <v>90</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>34.916775</v>
+      </c>
+      <c r="P74" t="n">
+        <v>16.609025</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>90314</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" t="b">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>40</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.1101077541028342</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0.02011160848126291</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.591328125</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2137866386674442</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.01354751479089823</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0003112029822403009</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3.849977348171658</v>
+      </c>
+      <c r="L75" t="n">
+        <v>58.17720000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>90</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>35.440325</v>
+      </c>
+      <c r="P75" t="n">
+        <v>16.460075</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>90223</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>40</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.1353886394985705</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0.02035754430603643</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.58296875</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.03179917221803091</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01951681869476004</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0005792300960435868</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3.900022834719729</v>
+      </c>
+      <c r="L76" t="n">
+        <v>59.23875</v>
+      </c>
+      <c r="M76" t="n">
+        <v>90</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>35.9675375</v>
+      </c>
+      <c r="P76" t="n">
+        <v>16.2978875</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>90017</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>40</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.4233668936601818</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0.02060155097034434</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.594375</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1162459010093872</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01598688233243821</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0004762941275376303</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2000000905340801</v>
+      </c>
+      <c r="L77" t="n">
+        <v>68.581</v>
+      </c>
+      <c r="M77" t="n">
+        <v>90</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.710999999999999</v>
+      </c>
+      <c r="P77" t="n">
+        <v>12.3831375</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>91194</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>40</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.1874410775468346</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0.0001548229803571081</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.586640625</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1414037722489898</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01692075810079606</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0005309793621932033</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2500000720478193</v>
+      </c>
+      <c r="L78" t="n">
+        <v>68.58067500000001</v>
+      </c>
+      <c r="M78" t="n">
+        <v>90</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2.147675</v>
+      </c>
+      <c r="P78" t="n">
+        <v>12.385925</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>90745</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>40</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.2154384664466389</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0.0001239746892608286</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.582734375</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.000703125</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.2371672316820715</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.01741164506301972</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0005592602830605928</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.2999996154110759</v>
+      </c>
+      <c r="L79" t="n">
+        <v>68.59597500000001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>90</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2.584374999999998</v>
+      </c>
+      <c r="P79" t="n">
+        <v>12.389225</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>90440</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>40</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.2285341236772734</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0.0004027809917262918</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.58578125</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3675636062165962</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01751014183150546</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0005698898669047923</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.3499985478498071</v>
+      </c>
+      <c r="L80" t="n">
+        <v>68.6266</v>
+      </c>
+      <c r="M80" t="n">
+        <v>90</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3.021075</v>
+      </c>
+      <c r="P80" t="n">
+        <v>12.3927875</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>91455</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>40</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.2672019520925369</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0.000681559856707912</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.5878125</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.4595273973530968</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01765781703083005</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0005790431285670734</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.4000023952541166</v>
+      </c>
+      <c r="L81" t="n">
+        <v>68.6729</v>
+      </c>
+      <c r="M81" t="n">
+        <v>90</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.457887499999998</v>
+      </c>
+      <c r="P81" t="n">
+        <v>12.3968375</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>91481</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>40</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.2882077184766345</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0.0009603665810279423</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.58421875</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5504681338942361</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0176651154145815</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0005780238174135858</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4500016576026762</v>
+      </c>
+      <c r="L82" t="n">
+        <v>68.734925</v>
+      </c>
+      <c r="M82" t="n">
+        <v>90</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3.894737499999998</v>
+      </c>
+      <c r="P82" t="n">
+        <v>12.401225</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>91539</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>40</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.307511513464044</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0.001239133337737257</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.58515625</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6406420202654622</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01771327704525528</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0005787907786838023</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5000004633258106</v>
+      </c>
+      <c r="L83" t="n">
+        <v>68.81245000000001</v>
+      </c>
+      <c r="M83" t="n">
+        <v>90</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4.331687499999997</v>
+      </c>
+      <c r="P83" t="n">
+        <v>12.40585</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>91609</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>40</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.3352821188739502</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.001517879560084439</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.586640625</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7457950808517849</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01781034808913585</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0005832495263081183</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.5500014364654816</v>
+      </c>
+      <c r="L84" t="n">
+        <v>68.905725</v>
+      </c>
+      <c r="M84" t="n">
+        <v>90</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4.768812499999999</v>
+      </c>
+      <c r="P84" t="n">
+        <v>12.410925</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>91480</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+      <c r="U84" t="b">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>40</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.3651728838813521</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.001796637491337381</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.58890625</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9213175905053583</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01799932715724122</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0005888487236866039</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.6000014815348199</v>
+      </c>
+      <c r="L85" t="n">
+        <v>69.01445000000001</v>
+      </c>
+      <c r="M85" t="n">
+        <v>90</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5.206099999999999</v>
+      </c>
+      <c r="P85" t="n">
+        <v>12.4162625</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>91013</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="b">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>40</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.404813728318108</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.002075377070466693</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.5808593750000001</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.100812113602925</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01809837463550127</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0005946620990877028</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.6499990594442414</v>
+      </c>
+      <c r="L86" t="n">
+        <v>69.13865000000001</v>
+      </c>
+      <c r="M86" t="n">
+        <v>90</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>5.643562499999998</v>
+      </c>
+      <c r="P86" t="n">
+        <v>12.4219875</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>91174</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="b">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>40</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE86" t="n">
+        <v>0.4459959438180421</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0.002354089632694686</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.590859375</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.001328125</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.429144012777587</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01833467992091693</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0006063939804143954</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.6999972755997721</v>
+      </c>
+      <c r="L87" t="n">
+        <v>69.27844999999999</v>
+      </c>
+      <c r="M87" t="n">
+        <v>90</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>6.081199999999999</v>
+      </c>
+      <c r="P87" t="n">
+        <v>12.427925</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>91110</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="b">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>40</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.5334837839954137</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0.002632752113692602</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.59203125</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.935275122397614</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0187243216338136</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0006246375960958812</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.7500018145758962</v>
+      </c>
+      <c r="L88" t="n">
+        <v>69.43385000000001</v>
+      </c>
+      <c r="M88" t="n">
+        <v>90</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>6.519124999999999</v>
+      </c>
+      <c r="P88" t="n">
+        <v>12.4341375</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>90867</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>40</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE88" t="n">
+        <v>0.6407736048863064</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0.002911417841139516</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C89" t="n">
+        <v>12</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.885968688021712</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01927569830609423</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0006527005097555831</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.799998909146019</v>
+      </c>
+      <c r="L89" t="n">
+        <v>69.604775</v>
+      </c>
+      <c r="M89" t="n">
+        <v>90</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>6.9573</v>
+      </c>
+      <c r="P89" t="n">
+        <v>12.4405875</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>91133</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="b">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>40</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE89" t="n">
+        <v>0.9075069928734568</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0.003190042214938756</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C90" t="n">
+        <v>13</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.581875</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.582356724344472</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.1088780071022779</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0006662146721481614</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.8500015689435217</v>
+      </c>
+      <c r="L90" t="n">
+        <v>69.791325</v>
+      </c>
+      <c r="M90" t="n">
+        <v>90</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>7.395799999999998</v>
+      </c>
+      <c r="P90" t="n">
+        <v>12.4473125</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>90502</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.03371179873983784</v>
+      </c>
+      <c r="U90" t="b">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>40</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.409483209054504</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0.003468654062442933</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.5859375</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12.67524891773132</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4158294514018424</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0009656822458208318</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9000012923660536</v>
+      </c>
+      <c r="L91" t="n">
+        <v>69.993925</v>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>7.834562499999997</v>
+      </c>
+      <c r="P91" t="n">
+        <v>12.4541625</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>90886</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.004177728313573201</v>
+      </c>
+      <c r="U91" t="b">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>40</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE91" t="n">
+        <v>3.864413561618997</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0.003747188900186244</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.5834375000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F92" t="n">
+        <v>511.0230619173559</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.288821691869724</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.09184147741006983</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9500038700323428</v>
+      </c>
+      <c r="L92" t="n">
+        <v>70.21237500000001</v>
+      </c>
+      <c r="M92" t="n">
+        <v>90</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>8.273699999999998</v>
+      </c>
+      <c r="P92" t="n">
+        <v>12.4611625</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>90764</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.001085372390771445</v>
+      </c>
+      <c r="U92" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>40</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE92" t="n">
+        <v>2488.332415433276</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0.004025698086991315</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C93" t="n">
+        <v>16</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.59171875</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.000625</v>
+      </c>
+      <c r="F93" t="n">
+        <v>181076.8267219969</v>
+      </c>
+      <c r="G93" t="n">
+        <v>234.8197624981204</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.6997359237889983</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.000000428149072</v>
+      </c>
+      <c r="L93" t="n">
+        <v>70.446225</v>
+      </c>
+      <c r="M93" t="n">
+        <v>90</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>8.713187499999998</v>
+      </c>
+      <c r="P93" t="n">
+        <v>12.4682625</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>91244</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.934510904055652e-05</v>
+      </c>
+      <c r="U93" t="b">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>40</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE93" t="n">
+        <v>29457.55937945938</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0.004304143043443041</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C94" t="n">
+        <v>17</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.58390625</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>126.8939406198425</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.1188546595570508</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.004083083591789048</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.050011275992047</v>
+      </c>
+      <c r="L94" t="n">
+        <v>70.695775</v>
+      </c>
+      <c r="M94" t="n">
+        <v>90</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9.153162499999999</v>
+      </c>
+      <c r="P94" t="n">
+        <v>12.4754625</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>90835</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.204515028277276</v>
+      </c>
+      <c r="U94" t="b">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>40</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE94" t="n">
+        <v>33.40399242333997</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0.00458258942046152</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.58328125</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9.15634278326746</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.02530109983208655</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.001362070356032612</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.100009483104038</v>
+      </c>
+      <c r="L95" t="n">
+        <v>70.96122500000001</v>
+      </c>
+      <c r="M95" t="n">
+        <v>90</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>9.593474999999998</v>
+      </c>
+      <c r="P95" t="n">
+        <v>12.4826875</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>90928</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1</v>
+      </c>
+      <c r="U95" t="b">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>40</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE95" t="n">
+        <v>3.29522036615135</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0.004860917842028329</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C96" t="n">
+        <v>19</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.589140625</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.379460131258189</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.01853604292703354</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0006271599735825251</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.149997810842594</v>
+      </c>
+      <c r="L96" t="n">
+        <v>71.24250000000001</v>
+      </c>
+      <c r="M96" t="n">
+        <v>90</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>10.0342375</v>
+      </c>
+      <c r="P96" t="n">
+        <v>12.4898375</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>90176</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1</v>
+      </c>
+      <c r="U96" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>40</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE96" t="n">
+        <v>0.9273958975142174</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0.005139173091898708</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.587265625</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.645737687440334</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01653771969221716</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0005033344511637105</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.200011865416783</v>
+      </c>
+      <c r="L97" t="n">
+        <v>71.53982500000001</v>
+      </c>
+      <c r="M97" t="n">
+        <v>90</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>10.4755375</v>
+      </c>
+      <c r="P97" t="n">
+        <v>12.4969875</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>90453</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1</v>
+      </c>
+      <c r="U97" t="b">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>40</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE97" t="n">
+        <v>0.494755723694951</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0.005417390883001014</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C98" t="n">
+        <v>21</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.5825781250000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9195323165633043</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01543005964384585</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0004423700332274034</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.250000473378927</v>
+      </c>
+      <c r="L98" t="n">
+        <v>71.8526</v>
+      </c>
+      <c r="M98" t="n">
+        <v>90</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>10.917225</v>
+      </c>
+      <c r="P98" t="n">
+        <v>12.503925</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>90521</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="b">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>40</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE98" t="n">
+        <v>0.3473510311307119</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0.005695444332592023</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C99" t="n">
+        <v>22</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.587265625</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.5700503142716382</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0145850751834241</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.00039629380078719</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.299998792331855</v>
+      </c>
+      <c r="L99" t="n">
+        <v>72.18187500000001</v>
+      </c>
+      <c r="M99" t="n">
+        <v>90</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>11.359625</v>
+      </c>
+      <c r="P99" t="n">
+        <v>12.510775</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>90533</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="b">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>40</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE99" t="n">
+        <v>0.2375504796942371</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0.005973519960242041</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C100" t="n">
+        <v>23</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.590078125</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3830880316975115</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01390775010947157</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0003618091590251689</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.349995708448935</v>
+      </c>
+      <c r="L100" t="n">
+        <v>72.5271</v>
+      </c>
+      <c r="M100" t="n">
+        <v>90</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>11.8024875</v>
+      </c>
+      <c r="P100" t="n">
+        <v>12.5174125</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>90769</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="b">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>40</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.1965283600817139</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0.006251430999521023</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C101" t="n">
+        <v>24</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.577421875</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2605637665462918</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.01346514551137011</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.000336769050295113</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.400000330962667</v>
+      </c>
+      <c r="L101" t="n">
+        <v>72.88815</v>
+      </c>
+      <c r="M101" t="n">
+        <v>90</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>12.2459375</v>
+      </c>
+      <c r="P101" t="n">
+        <v>12.523625</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>90455</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="b">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>40</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE101" t="n">
+        <v>0.1674213161245824</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0.006529220505077406</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C102" t="n">
+        <v>25</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.5895312500000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.2170470734045596</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0130183929167302</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0003143178088829665</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.44999519385337</v>
+      </c>
+      <c r="L102" t="n">
+        <v>73.26560000000001</v>
+      </c>
+      <c r="M102" t="n">
+        <v>90</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>12.690075</v>
+      </c>
+      <c r="P102" t="n">
+        <v>12.52955</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>90803</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="b">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>40</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.153163265528517</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0.006806932913207967</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C103" t="n">
+        <v>26</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.58390625</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1868052881814878</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.01288730554373715</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0003043951133036062</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.499998674773153</v>
+      </c>
+      <c r="L103" t="n">
+        <v>73.659075</v>
+      </c>
+      <c r="M103" t="n">
+        <v>90</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>13.1348</v>
+      </c>
+      <c r="P103" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>90004</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="b">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>40</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE103" t="n">
+        <v>0.1430874470106987</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0.007084470184455091</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C104" t="n">
+        <v>27</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.58046875</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1520778024578597</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.01261242847586207</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.000292446550792895</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.549996487011281</v>
+      </c>
+      <c r="L104" t="n">
+        <v>74.06897499999999</v>
+      </c>
+      <c r="M104" t="n">
+        <v>90</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>13.5802625</v>
+      </c>
+      <c r="P104" t="n">
+        <v>12.5399875</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>90309</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="b">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>40</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE104" t="n">
+        <v>0.1355214569316423</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0.007361900417593563</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C105" t="n">
+        <v>28</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.58640625</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1245404183536409</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.01247470262085454</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0002864769339068069</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.600008662679246</v>
+      </c>
+      <c r="L105" t="n">
+        <v>74.495475</v>
+      </c>
+      <c r="M105" t="n">
+        <v>90</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>14.0265625</v>
+      </c>
+      <c r="P105" t="n">
+        <v>12.5443875</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>90443</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="b">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>40</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE105" t="n">
+        <v>0.1352888516936037</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0.007639251696855833</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C106" t="n">
+        <v>29</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.58375</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.000625</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1305600350085719</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.01243747531781477</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.000281603837821108</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.650006812572804</v>
+      </c>
+      <c r="L106" t="n">
+        <v>74.93810000000001</v>
+      </c>
+      <c r="M106" t="n">
+        <v>90</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>14.473475</v>
+      </c>
+      <c r="P106" t="n">
+        <v>12.5481625</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>89750</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="b">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>40</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE106" t="n">
+        <v>0.1276254562358438</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0.007916354938083341</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C107" t="n">
+        <v>30</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.593046875</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1023548904559004</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.01233976444293509</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0002791261510840333</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.700009220630216</v>
+      </c>
+      <c r="L107" t="n">
+        <v>75.39782500000001</v>
+      </c>
+      <c r="M107" t="n">
+        <v>90</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>14.9211875</v>
+      </c>
+      <c r="P107" t="n">
+        <v>12.5511625</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>90603</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="b">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>40</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE107" t="n">
+        <v>0.1254193160436872</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.008193289514887439</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C108" t="n">
+        <v>31</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.58546875</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1059227432427106</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.01230579576327316</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0002768284725217603</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.750012903661349</v>
+      </c>
+      <c r="L108" t="n">
+        <v>75.873975</v>
+      </c>
+      <c r="M108" t="n">
+        <v>90</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>15.3697375</v>
+      </c>
+      <c r="P108" t="n">
+        <v>12.55335</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>90417</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="b">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>40</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE108" t="n">
+        <v>0.1219930831325759</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0.008470047696074789</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,13 +928,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5584173786747314</v>
+        <v>0.4685319849791202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01172050563816901</v>
+        <v>0.01256876271512265</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002954592147048991</v>
+        <v>0.0002923564553438407</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -976,16 +976,16 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y5" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="Z5" t="n">
         <v>2</v>
@@ -1007,12 +1007,3792 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>0.05908395712240005</v>
+        <v>0.2181693134248116</v>
       </c>
       <c r="AF5" t="n">
         <v>0.000718676592156832</v>
       </c>
       <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.5921875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3231612215533674</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01248193294999907</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0002897783946061783</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3999978491873667</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26.265625</v>
+      </c>
+      <c r="M6" t="n">
+        <v>90</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.416474999999998</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17.5669125</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>90787</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>40</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.189688000662597</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001011189028630286</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.585078125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.001328125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2358807239767866</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01244314849961543</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0002867624075509777</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4499965763011312</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26.30875</v>
+      </c>
+      <c r="M7" t="n">
+        <v>90</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.853324999999998</v>
+      </c>
+      <c r="P7" t="n">
+        <v>17.57315</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>90290</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>40</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.1620931418455959</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001303701231108943</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.5853906250000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1752532632878965</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01236022876837242</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0002824059200833066</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5000015102665561</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.36295</v>
+      </c>
+      <c r="M8" t="n">
+        <v>90</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.290312499999999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>17.579975</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>90269</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>40</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.1502211440096811</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.001596208987665999</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.5896875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1601861918720787</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01231889538465378</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0002798863829567043</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5499992566551923</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26.42815</v>
+      </c>
+      <c r="M9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.727374999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>17.587175</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>90186</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>40</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1311107407624554</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.001888642857126413</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.589609375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1246096315346143</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01220021651998308</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0002757035486516593</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6000031196046375</v>
+      </c>
+      <c r="L10" t="n">
+        <v>26.504525</v>
+      </c>
+      <c r="M10" t="n">
+        <v>90</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.164624999999997</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17.59505</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>90770</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>40</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1280802061283253</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.002181063517051033</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.589921875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1221997738995097</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01222720232674501</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.000275556539765143</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6499965168036488</v>
+      </c>
+      <c r="L11" t="n">
+        <v>26.59195</v>
+      </c>
+      <c r="M11" t="n">
+        <v>90</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.602024999999998</v>
+      </c>
+      <c r="P11" t="n">
+        <v>17.603325</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>90315</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>40</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1366536523978645</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.002473415448778893</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.58921875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.000859375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09074415077719829</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01222490020518111</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0002756911609827324</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.6999955931317605</v>
+      </c>
+      <c r="L12" t="n">
+        <v>26.6904</v>
+      </c>
+      <c r="M12" t="n">
+        <v>90</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.039662499999999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17.6119375</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>90098</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>40</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1219435255325556</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.002765730954260923</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.592734375</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1057960615614632</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01218621014638006</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0002723328105967581</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.750004129185625</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26.80002500000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>90</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.477599999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17.6211375</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>90124</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>40</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.120808160117275</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.003058037269159208</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.592109375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.08203446122634632</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01205093706311202</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0002685630121605095</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7999961350371141</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26.920625</v>
+      </c>
+      <c r="M14" t="n">
+        <v>90</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.915649999999999</v>
+      </c>
+      <c r="P14" t="n">
+        <v>17.63055</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>90941</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>40</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.1156694581905917</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.003350170867517325</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.584140625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.000859375</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08663175493770531</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01204122171330466</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0002680029845205473</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8499995212414677</v>
+      </c>
+      <c r="L15" t="n">
+        <v>27.05245000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>90</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.354112499999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>17.6405375</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>90988</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>40</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1201554965591009</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.003642322582859247</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.583203125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08195919090109033</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01211990127734316</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0002696380146021228</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9000010032709342</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27.19545000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>90</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.792862499999998</v>
+      </c>
+      <c r="P16" t="n">
+        <v>17.650975</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>90550</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>40</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.119972380598467</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.003934380251146528</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.5890625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.07322718014511045</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01203578002077278</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0002665056537893042</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9499933458826623</v>
+      </c>
+      <c r="L17" t="n">
+        <v>27.349525</v>
+      </c>
+      <c r="M17" t="n">
+        <v>90</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8.231924999999997</v>
+      </c>
+      <c r="P17" t="n">
+        <v>17.661675</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>90883</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>40</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.1270999661326299</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.004226326624840558</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.58328125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.000859375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08736425290719792</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01216657094402213</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0002695757899263082</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9999976196070822</v>
+      </c>
+      <c r="L18" t="n">
+        <v>27.51485000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>90</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.671424999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17.6728</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>89924</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>40</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1210828679212608</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.004518227805618716</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.5884375000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08470383183684116</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01216997741399639</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0002700411257971357</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.049996906400581</v>
+      </c>
+      <c r="L19" t="n">
+        <v>27.69137500000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>90</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9.111274999999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>17.6843</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>90184</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>40</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.1245521005251173</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.004809998234665402</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.591328125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.07920014823169345</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01214478109778711</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.000270289764482096</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.100000980117384</v>
+      </c>
+      <c r="L20" t="n">
+        <v>27.87910000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>90</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.551587499999998</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17.6960875</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>90656</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>40</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1202735761534576</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.005101681710295304</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.588515625</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06683118177761183</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01225460562095981</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0002726237377671927</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.149996607987808</v>
+      </c>
+      <c r="L21" t="n">
+        <v>28.078075</v>
+      </c>
+      <c r="M21" t="n">
+        <v>90</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.992299999999998</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17.708175</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>89854</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>40</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.1177386044058978</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.005393211541889114</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.589765625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.000625</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09290391057144712</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01219179608534886</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0002730219827217517</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.199988025867</v>
+      </c>
+      <c r="L22" t="n">
+        <v>28.28830000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>90</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10.433475</v>
+      </c>
+      <c r="P22" t="n">
+        <v>17.720525</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>90930</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>40</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.1228401522303609</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.00568460021300261</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.582734375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08291801776632363</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01227861510855281</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0002748825745416441</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.249993639714321</v>
+      </c>
+      <c r="L23" t="n">
+        <v>28.50985</v>
+      </c>
+      <c r="M23" t="n">
+        <v>90</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10.8751875</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17.7330875</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>90341</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>40</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.1204788081583832</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.005975866688449988</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.591875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0797304057180388</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01232721242359966</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.00027648287709666</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.299994417784478</v>
+      </c>
+      <c r="L24" t="n">
+        <v>28.7427</v>
+      </c>
+      <c r="M24" t="n">
+        <v>90</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>11.3174625</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17.745825</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>90097</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>40</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.1191963502624022</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.00626699700686289</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.581015625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.001328125</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.09698035612846154</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01235423046084614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0002787711020005231</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.350000694082829</v>
+      </c>
+      <c r="L25" t="n">
+        <v>28.98695000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>90</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>11.760325</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17.75875</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>90493</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>40</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.1239146219275478</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.006557980366834047</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.58921875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1030441389734955</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01233337338041083</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0002788508126679293</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.400006572022451</v>
+      </c>
+      <c r="L26" t="n">
+        <v>29.242575</v>
+      </c>
+      <c r="M26" t="n">
+        <v>90</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>12.2037875</v>
+      </c>
+      <c r="P26" t="n">
+        <v>17.771725</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>90812</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>40</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1303840863383617</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.006848785725417059</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.58046875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1050006387663884</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01241099846469211</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0002813773213401774</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.450004933582452</v>
+      </c>
+      <c r="L27" t="n">
+        <v>29.509575</v>
+      </c>
+      <c r="M27" t="n">
+        <v>90</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>12.6477875</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17.7847625</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>90459</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>40</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.1228113526480281</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.007139343835434949</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.5873437500000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1225949607956582</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01241400875595612</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.000282646221157708</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.500000328136944</v>
+      </c>
+      <c r="L28" t="n">
+        <v>29.788</v>
+      </c>
+      <c r="M28" t="n">
+        <v>90</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>13.092425</v>
+      </c>
+      <c r="P28" t="n">
+        <v>17.79765</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>91017</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>40</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.1200837056351705</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.007429672231614669</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.587734375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1448867105225271</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01252266940705953</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0002866603027744123</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.550003706075667</v>
+      </c>
+      <c r="L29" t="n">
+        <v>30.078</v>
+      </c>
+      <c r="M29" t="n">
+        <v>90</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>13.5378625</v>
+      </c>
+      <c r="P29" t="n">
+        <v>17.810575</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>90790</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>40</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.1319899305828813</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.007719861208897987</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.586953125</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1533770012101666</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01256821007622211</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0002888893775793694</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.600001924696995</v>
+      </c>
+      <c r="L30" t="n">
+        <v>30.37950000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>90</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>13.9839125</v>
+      </c>
+      <c r="P30" t="n">
+        <v>17.8234125</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>90946</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>40</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.1393186496324103</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.008009747283939044</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.59375</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2156825297948096</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01266592969769577</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0002915520190832356</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.650008818508131</v>
+      </c>
+      <c r="L31" t="n">
+        <v>30.6927</v>
+      </c>
+      <c r="M31" t="n">
+        <v>90</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>14.4308125</v>
+      </c>
+      <c r="P31" t="n">
+        <v>17.8362</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>90737</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>40</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.1491751557320692</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.008299456036458841</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.5875781250000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2590556930059474</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01286454488785907</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0002997184141911398</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.700002817181012</v>
+      </c>
+      <c r="L32" t="n">
+        <v>31.017425</v>
+      </c>
+      <c r="M32" t="n">
+        <v>90</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>14.8783625</v>
+      </c>
+      <c r="P32" t="n">
+        <v>17.848575</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>90598</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>40</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.1532164466467745</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.00858879184594641</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.579921875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3555168969006461</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01319893272818877</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0003116433503970234</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.749996192199123</v>
+      </c>
+      <c r="L33" t="n">
+        <v>31.3539</v>
+      </c>
+      <c r="M33" t="n">
+        <v>90</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15.3267875</v>
+      </c>
+      <c r="P33" t="n">
+        <v>17.8606875</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>90185</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>40</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.1738163247503492</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.008877879897123431</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.593671875</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.000703125</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5531797749806576</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01365580082649834</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0003284344977685932</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.799993564458712</v>
+      </c>
+      <c r="L34" t="n">
+        <v>31.70225000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>90</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15.7761125</v>
+      </c>
+      <c r="P34" t="n">
+        <v>17.872625</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>90974</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>40</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.1966410622145586</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.009166711083625869</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.58078125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9859567415288991</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01520676270804362</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0003826211951150255</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.849983299104895</v>
+      </c>
+      <c r="L35" t="n">
+        <v>32.06235000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>90</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>16.226225</v>
+      </c>
+      <c r="P35" t="n">
+        <v>17.8840875</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>91173</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>40</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.265449992658868</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.00945514894295787</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.582109375</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.773406644409842</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0264231151983526</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0007094871794871796</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.899990609303646</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32.4344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>90</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>16.6773</v>
+      </c>
+      <c r="P36" t="n">
+        <v>17.89505</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>91000</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>40</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.809380452449673</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.009743266832289132</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.58921875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.000859375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>150.7336330739903</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7067234431700088</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03783643131868233</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.949989017990179</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32.8184</v>
+      </c>
+      <c r="M37" t="n">
+        <v>90</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>17.129275</v>
+      </c>
+      <c r="P37" t="n">
+        <v>17.9054125</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>91071</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.02796465868565877</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>40</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>413.0717048602303</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.0100309779327597</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.581171875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F38" t="n">
+        <v>90910.26394393378</v>
+      </c>
+      <c r="G38" t="n">
+        <v>169.919425946668</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2443876142018438</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.999990868120535</v>
+      </c>
+      <c r="L38" t="n">
+        <v>33.21455</v>
+      </c>
+      <c r="M38" t="n">
+        <v>90</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>17.582275</v>
+      </c>
+      <c r="P38" t="n">
+        <v>17.9152125</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>90760</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.697421966131398e-05</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>40</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
+        <v>5604.441366808064</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.01031832868477658</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.58859375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-520.7043992215282</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.254412029403331</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09521791703244077</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.050008547542936</v>
+      </c>
+      <c r="L39" t="n">
+        <v>33.6229</v>
+      </c>
+      <c r="M39" t="n">
+        <v>90</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>18.036325</v>
+      </c>
+      <c r="P39" t="n">
+        <v>17.92435</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>91547</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.01254329515847652</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>40</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>1185.89564270528</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.01060528634485899</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.587421875</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-21.13684059753044</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1330415326295396</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.004870145595844431</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.100016284239232</v>
+      </c>
+      <c r="L40" t="n">
+        <v>34.043475</v>
+      </c>
+      <c r="M40" t="n">
+        <v>90</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>18.4914</v>
+      </c>
+      <c r="P40" t="n">
+        <v>17.932625</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>91007</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.06862848217263544</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>40</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
+        <v>54.61929698384365</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.01089177415282423</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.588046875</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6874680257053641</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.009956049321505518</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0004090132574181722</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.150005490137622</v>
+      </c>
+      <c r="L41" t="n">
+        <v>34.4764</v>
+      </c>
+      <c r="M41" t="n">
+        <v>90</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>18.9475125</v>
+      </c>
+      <c r="P41" t="n">
+        <v>17.9401375</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>89908</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>54</v>
+      </c>
+      <c r="W41" t="n">
+        <v>67</v>
+      </c>
+      <c r="X41" t="n">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>274</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1088805734552116</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.01117777287134961</v>
+      </c>
+      <c r="AG41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,13 +613,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05467071789568272</v>
+        <v>0.09721576304624097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00615024699254615</v>
+        <v>0.01162994378862035</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002729130270251847</v>
+        <v>0.0002542914692872765</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="W2" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>120</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z2" t="n">
         <v>2</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>0.03922705165821064</v>
+        <v>0.1135486862779087</v>
       </c>
       <c r="AF2" t="n">
         <v>0.0001589856854948248</v>
@@ -718,13 +718,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2830958436253628</v>
+        <v>0.3604410818283874</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006486442766384275</v>
+        <v>0.0122455345470943</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000282316006173504</v>
+        <v>0.0002772119912235288</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -766,16 +766,16 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="W3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>120</v>
       </c>
       <c r="Y3" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z3" t="n">
         <v>2</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>0.04637760697642813</v>
+        <v>0.1680814628053406</v>
       </c>
       <c r="AF3" t="n">
         <v>0.0001335700357694114</v>
@@ -823,13 +823,13 @@
         <v>-0.00125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3051682889241764</v>
+        <v>0.4292451383095024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006505022765037007</v>
+        <v>0.01245976932937304</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002846520430304953</v>
+        <v>0.0002765234039743844</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -871,19 +871,19 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>120</v>
       </c>
       <c r="Y4" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA4" t="n">
         <v>30</v>
@@ -894,15 +894,15 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>0.04806539658228844</v>
+        <v>0.07310918426250616</v>
       </c>
       <c r="AF4" t="n">
         <v>0.0004261338930113039</v>
@@ -928,13 +928,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2193532781346333</v>
+        <v>0.3867784769656659</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006423951537349833</v>
+        <v>0.01255939959506199</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002824272370779774</v>
+        <v>0.0002800113208656786</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -976,19 +976,19 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W5" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>120</v>
       </c>
       <c r="Y5" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA5" t="n">
         <v>30</v>
@@ -999,15 +999,15 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>0.0492409403761126</v>
+        <v>0.07987328045400129</v>
       </c>
       <c r="AF5" t="n">
         <v>0.000718676592156832</v>
@@ -1033,13 +1033,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1364860405632867</v>
+        <v>0.2482534556277327</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00633441575073987</v>
+        <v>0.01247317206349413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000280296790625013</v>
+        <v>0.0002796405016381445</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -1081,19 +1081,19 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>120</v>
       </c>
       <c r="Y6" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA6" t="n">
         <v>30</v>
@@ -1104,15 +1104,15 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>0.04296558890359705</v>
+        <v>0.08261635290790187</v>
       </c>
       <c r="AF6" t="n">
         <v>0.001011189028630286</v>
@@ -1138,13 +1138,13 @@
         <v>-0.001328125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1155480270476729</v>
+        <v>0.1433588034992892</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006303366002857194</v>
+        <v>0.01242578130693887</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002776336997970481</v>
+        <v>0.0002777180935504116</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1186,19 +1186,19 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W7" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>120</v>
       </c>
       <c r="Y7" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA7" t="n">
         <v>30</v>
@@ -1209,15 +1209,15 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>0.04065986440327164</v>
+        <v>0.0729184167211837</v>
       </c>
       <c r="AF7" t="n">
         <v>0.001303701231108943</v>
@@ -1243,13 +1243,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09144245598302218</v>
+        <v>0.1101531280681252</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006245084442922998</v>
+        <v>0.01233789861123646</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002719606394387458</v>
+        <v>0.0002741681960461386</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1291,19 +1291,19 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W8" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>120</v>
       </c>
       <c r="Y8" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>30</v>
@@ -1314,15 +1314,15 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.04293397270958584</v>
+        <v>0.08289299188891797</v>
       </c>
       <c r="AF8" t="n">
         <v>0.001596208987665999</v>
@@ -1348,13 +1348,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07443918990891593</v>
+        <v>0.04721323578668998</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006237097652493641</v>
+        <v>0.01229065327816423</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002714473208126259</v>
+        <v>0.0002727098564201884</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1396,19 +1396,19 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W9" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>120</v>
       </c>
       <c r="Y9" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA9" t="n">
         <v>30</v>
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>0.04245027356696485</v>
+        <v>0.07165492555935239</v>
       </c>
       <c r="AF9" t="n">
         <v>0.001888642857126413</v>
@@ -1453,13 +1453,13 @@
         <v>-0.001015625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05581059292277708</v>
+        <v>-0.01208541827247678</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006182262519637372</v>
+        <v>0.01217182094252085</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002713103743997844</v>
+        <v>0.0002691485194569915</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1501,19 +1501,19 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W10" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>120</v>
       </c>
       <c r="Y10" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA10" t="n">
         <v>30</v>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>0.04276793723647929</v>
+        <v>0.08001684561983895</v>
       </c>
       <c r="AF10" t="n">
         <v>0.002181063517051033</v>
@@ -1558,13 +1558,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05733603224821522</v>
+        <v>-0.02112701548918393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006183473216571376</v>
+        <v>0.01219559275913333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002694322468841027</v>
+        <v>0.0002681817343003193</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1606,19 +1606,19 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W11" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>120</v>
       </c>
       <c r="Y11" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA11" t="n">
         <v>30</v>
@@ -1629,15 +1629,15 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>0.04403241263138627</v>
+        <v>0.08328248406425358</v>
       </c>
       <c r="AF11" t="n">
         <v>0.002473415448778893</v>
@@ -1663,13 +1663,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05086398129847272</v>
+        <v>-0.09940510848095546</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00618435868592918</v>
+        <v>0.01219194482485311</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002690677289887083</v>
+        <v>0.0002688227140323746</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1711,19 +1711,19 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W12" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>120</v>
       </c>
       <c r="Y12" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA12" t="n">
         <v>30</v>
@@ -1734,15 +1734,15 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>0.04399045551597572</v>
+        <v>0.07327882583760284</v>
       </c>
       <c r="AF12" t="n">
         <v>0.002765730954260923</v>
@@ -1768,13 +1768,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04693522162169408</v>
+        <v>-0.07346311103086524</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006165894326287903</v>
+        <v>0.01214924275918893</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002672250270608704</v>
+        <v>0.0002658331237455556</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1816,19 +1816,19 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>120</v>
       </c>
       <c r="Y13" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA13" t="n">
         <v>30</v>
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>0.04177138337761545</v>
+        <v>0.07538156418293805</v>
       </c>
       <c r="AF13" t="n">
         <v>0.003058037269159208</v>
@@ -1873,13 +1873,13 @@
         <v>-0.001171875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04236287266846538</v>
+        <v>-0.01875377261999316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006107155775322979</v>
+        <v>0.01201702572002968</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000264178340509192</v>
+        <v>0.0002620080907157143</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1921,19 +1921,19 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W14" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>120</v>
       </c>
       <c r="Y14" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA14" t="n">
         <v>30</v>
@@ -1944,15 +1944,15 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>0.04214829176314138</v>
+        <v>0.07193499711820414</v>
       </c>
       <c r="AF14" t="n">
         <v>0.003350170867517325</v>
@@ -1978,13 +1978,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04720240667461247</v>
+        <v>-0.09158662570116134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006099745060798177</v>
+        <v>0.0119987742954958</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0002624991034734545</v>
+        <v>0.0002613494819829722</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -2026,19 +2026,19 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W15" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>120</v>
       </c>
       <c r="Y15" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA15" t="n">
         <v>30</v>
@@ -2049,15 +2049,15 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>0.04279554081059342</v>
+        <v>0.07315601240962116</v>
       </c>
       <c r="AF15" t="n">
         <v>0.003642322582859247</v>
@@ -2083,13 +2083,13 @@
         <v>-0.00109375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0495200207359109</v>
+        <v>0.0268965623039755</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006137244077133973</v>
+        <v>0.01207802757291996</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002647845126864978</v>
+        <v>0.0002629780968157555</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -2131,19 +2131,19 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W16" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>120</v>
       </c>
       <c r="Y16" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA16" t="n">
         <v>30</v>
@@ -2154,15 +2154,15 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>0.04341063817547596</v>
+        <v>0.08319230685289075</v>
       </c>
       <c r="AF16" t="n">
         <v>0.003934380251146528</v>
@@ -2188,13 +2188,13 @@
         <v>-0.0009375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04264741704083271</v>
+        <v>-0.09374473329677441</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006102657297026548</v>
+        <v>0.01199294242278427</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002615676991925946</v>
+        <v>0.0002597491035482739</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -2236,19 +2236,19 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W17" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>120</v>
       </c>
       <c r="Y17" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA17" t="n">
         <v>30</v>
@@ -2259,15 +2259,15 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>0.04194985434696671</v>
+        <v>0.0736033256963585</v>
       </c>
       <c r="AF17" t="n">
         <v>0.004226326624840558</v>
@@ -2293,13 +2293,13 @@
         <v>-0.000859375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0463417272101832</v>
+        <v>-0.0410041276867326</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006164169457192132</v>
+        <v>0.01212338210220817</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0002640978478880761</v>
+        <v>0.0002629405572112747</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -2341,19 +2341,19 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W18" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>120</v>
       </c>
       <c r="Y18" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA18" t="n">
         <v>30</v>
@@ -2364,15 +2364,15 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>0.03741324317644645</v>
+        <v>0.07008889439947118</v>
       </c>
       <c r="AF18" t="n">
         <v>0.004518227805618716</v>
@@ -2398,13 +2398,13 @@
         <v>-0.00078125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03633506395678045</v>
+        <v>-0.08317999684882926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006204693915506917</v>
+        <v>0.01212218214869982</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0002771280853801693</v>
+        <v>0.0002635149620036074</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -2446,19 +2446,19 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="W19" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>120</v>
       </c>
       <c r="Y19" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="AA19" t="n">
         <v>30</v>
@@ -2469,20 +2469,2114 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>vincent</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>0.04882157856487492</v>
+        <v>0.08213484782894796</v>
       </c>
       <c r="AF19" t="n">
         <v>0.004809998234665402</v>
       </c>
       <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.591328125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.07313909398545676</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0120927470184411</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0002633318380593795</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.100000980117384</v>
+      </c>
+      <c r="L20" t="n">
+        <v>27.87910000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>90</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.551587499999998</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17.6960875</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>90656</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>29</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.07690185977316236</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.005101681710295304</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.588515625</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.06444500903872252</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01220351901041148</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0002657811560976695</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.149996607987808</v>
+      </c>
+      <c r="L21" t="n">
+        <v>28.078075</v>
+      </c>
+      <c r="M21" t="n">
+        <v>90</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.992299999999998</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17.708175</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>89854</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>29</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.07673167673936901</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.005393211541889114</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.589765625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.000625</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1196532815589749</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01214234805781315</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0002662524286080868</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.199988025867</v>
+      </c>
+      <c r="L22" t="n">
+        <v>28.28830000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>90</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10.433475</v>
+      </c>
+      <c r="P22" t="n">
+        <v>17.720525</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>90930</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>29</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.07084719773594624</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.00568460021300261</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.582734375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.07998067493490235</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01222512167336923</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0002676845384586056</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.249993639714321</v>
+      </c>
+      <c r="L23" t="n">
+        <v>28.50985</v>
+      </c>
+      <c r="M23" t="n">
+        <v>90</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10.8751875</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17.7330875</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>90341</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>29</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.07701719775504737</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.005975866688449988</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.591875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.09968058177228531</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01227593944488667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.000269854835467453</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.299994417784478</v>
+      </c>
+      <c r="L24" t="n">
+        <v>28.7427</v>
+      </c>
+      <c r="M24" t="n">
+        <v>90</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>11.3174625</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17.745825</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>90097</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>29</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.07443010337993071</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.00626699700686289</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.581015625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.001328125</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.02968245353030034</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01230393959507058</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0002715667387409952</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.350000694082829</v>
+      </c>
+      <c r="L25" t="n">
+        <v>28.98695000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>90</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>11.760325</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17.75875</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>90493</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>29</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.08239212671015037</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.006557980366834047</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.58921875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1175461511694303</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01228398291454161</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0002718803682332731</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.400006572022451</v>
+      </c>
+      <c r="L26" t="n">
+        <v>29.242575</v>
+      </c>
+      <c r="M26" t="n">
+        <v>90</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>12.2037875</v>
+      </c>
+      <c r="P26" t="n">
+        <v>17.771725</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>90812</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>29</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.08600428909539994</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.006848785725417059</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.58046875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.09645049918755588</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01236054492682397</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0002741377001981253</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.450004933582452</v>
+      </c>
+      <c r="L27" t="n">
+        <v>29.509575</v>
+      </c>
+      <c r="M27" t="n">
+        <v>90</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>12.6477875</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17.7847625</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>90459</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>29</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.07208338046461979</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.007139343835434949</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.5873437500000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.00109375</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.05236184726711769</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01236532268507459</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0002754601399250201</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.500000328136944</v>
+      </c>
+      <c r="L28" t="n">
+        <v>29.788</v>
+      </c>
+      <c r="M28" t="n">
+        <v>90</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>13.092425</v>
+      </c>
+      <c r="P28" t="n">
+        <v>17.79765</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>91017</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>29</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.07071595618677998</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.007429672231614669</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.587734375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.04884662776080657</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01247246810724562</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0002789036971766347</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.550003706075667</v>
+      </c>
+      <c r="L29" t="n">
+        <v>30.078</v>
+      </c>
+      <c r="M29" t="n">
+        <v>90</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>13.5378625</v>
+      </c>
+      <c r="P29" t="n">
+        <v>17.810575</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>90790</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>29</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.08173158649241107</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.007719861208897987</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.586953125</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.001015625</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.05265238702576254</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0125066232744487</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0002798235583019961</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.600001924696995</v>
+      </c>
+      <c r="L30" t="n">
+        <v>30.37950000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>90</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>13.9839125</v>
+      </c>
+      <c r="P30" t="n">
+        <v>17.8234125</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>90946</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>29</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.08498850212232345</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.008009747283939044</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.59375</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01451318158059961</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01261108391060358</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0002825859351752868</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.650008818508131</v>
+      </c>
+      <c r="L31" t="n">
+        <v>30.6927</v>
+      </c>
+      <c r="M31" t="n">
+        <v>90</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>14.4308125</v>
+      </c>
+      <c r="P31" t="n">
+        <v>17.8362</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>90737</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>29</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.08816573620666938</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.008299456036458841</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.5875781250000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1129759210342778</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01280643109942381</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0002896562592747939</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.700002817181012</v>
+      </c>
+      <c r="L32" t="n">
+        <v>31.017425</v>
+      </c>
+      <c r="M32" t="n">
+        <v>90</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>14.8783625</v>
+      </c>
+      <c r="P32" t="n">
+        <v>17.848575</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>90598</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>29</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.08265869300122752</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.00858879184594641</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.579921875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.001171875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1471747613270381</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01312806800828217</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.00029965071796862</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.749996192199123</v>
+      </c>
+      <c r="L33" t="n">
+        <v>31.3539</v>
+      </c>
+      <c r="M33" t="n">
+        <v>90</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15.3267875</v>
+      </c>
+      <c r="P33" t="n">
+        <v>17.8606875</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>90185</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>29</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.08758760094039675</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.008877879897123431</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.593671875</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.000703125</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3558010329839981</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01355287717185936</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0003133899062735873</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.799993564458712</v>
+      </c>
+      <c r="L34" t="n">
+        <v>31.70225000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>90</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15.7761125</v>
+      </c>
+      <c r="P34" t="n">
+        <v>17.872625</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>90974</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>29</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.09309470967324862</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.009166711083625869</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.58078125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.00078125</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7453436530178428</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01499626186107222</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0003575242183053706</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.849983299104895</v>
+      </c>
+      <c r="L35" t="n">
+        <v>32.06235000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>90</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>16.226225</v>
+      </c>
+      <c r="P35" t="n">
+        <v>17.8840875</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>91173</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>29</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.104444621842182</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.00945514894295787</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.582109375</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.00125</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.824388978543791</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02205070673315188</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0006019511599511599</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.899990609303646</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32.4344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>90</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>16.6773</v>
+      </c>
+      <c r="P36" t="n">
+        <v>17.89505</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>91000</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>29</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.3682529781479076</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.009743266832289132</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.58921875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.000859375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.928356976345359</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1716905395692279</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.001302303469676041</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.949989017990179</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32.8184</v>
+      </c>
+      <c r="M37" t="n">
+        <v>90</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>17.129275</v>
+      </c>
+      <c r="P37" t="n">
+        <v>17.9054125</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>91071</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.02796465868565877</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>29</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.274734048233385</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.0100309779327597</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.581171875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.999990868120535</v>
+      </c>
+      <c r="L38" t="n">
+        <v>33.21455</v>
+      </c>
+      <c r="M38" t="n">
+        <v>90</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>17.582275</v>
+      </c>
+      <c r="P38" t="n">
+        <v>17.9152125</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>90760</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.697421966131398e-05</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>29</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>0.01031832868477658</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4932</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.58859375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.0009375</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.222145808576915</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1482470085477335</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001982496444074563</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.050008547542936</v>
+      </c>
+      <c r="L39" t="n">
+        <v>33.6229</v>
+      </c>
+      <c r="M39" t="n">
+        <v>90</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>18.036325</v>
+      </c>
+      <c r="P39" t="n">
+        <v>17.92435</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>91547</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.01254329515847652</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>31</v>
+      </c>
+      <c r="W39" t="n">
+        <v>147</v>
+      </c>
+      <c r="X39" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>122</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>vincent</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.5409029329571727</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.01060528634485899</v>
+      </c>
+      <c r="AG39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dump_files/temp_data_ctr.xlsx
+++ b/dump_files/temp_data_ctr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,150 +446,135 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>peak_intensity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>peak_intensity_error</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peak_intensity</t>
+          <t>bkg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peak_intensity_error</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>bkg</t>
+          <t>K</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>phi</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>chi</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>phi</t>
+          <t>mu</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>chi</t>
+          <t>del</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>mu</t>
+          <t>nu</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>delta</t>
+          <t>eta</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>omega_t</t>
+          <t>transmission</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>omega</t>
+          <t>mask_ctr</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>mon</t>
+          <t>roi_x</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>transm</t>
+          <t>roi_y</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>mask_ctr</t>
+          <t>roi_w</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>roi_x</t>
+          <t>roi_h</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>roi_y</t>
+          <t>ss_factor</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>roi_w</t>
+          <t>peak_width</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>roi_h</t>
+          <t>poly_func</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>ss_factor</t>
+          <t>poly_order</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>peak_width</t>
+          <t>poly_type</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>poly_func</t>
+          <t>noise</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>poly_order</t>
+          <t>ctot</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>poly_type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>noise</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ctot</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>peak_shift</t>
         </is>
@@ -600,103 +585,94 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.67375</v>
+        <v>0.03895750712225014</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0025</v>
+        <v>0.001517200693070852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05540122431794688</v>
+        <v>0.0001040375312963368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002132268347967683</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.960257384351209e-05</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>-146.6508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3000012738921269</v>
+        <v>0.0669</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.9095</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21.6689</v>
       </c>
       <c r="N2" t="n">
-        <v>22.47166875</v>
+        <v>11.886</v>
       </c>
       <c r="O2" t="n">
-        <v>2.555074999999999</v>
+        <v>10.8345</v>
       </c>
       <c r="P2" t="n">
-        <v>12.3946</v>
+        <v>130600</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>434767</v>
+        <v>20</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U2" t="n">
+        <v>60</v>
       </c>
       <c r="V2" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.005771417087649997</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.008402738950133336</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
+        <v>0.03740802706677716</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,103 +681,94 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.676640625</v>
+        <v>0.03973605663844289</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00453125</v>
+        <v>0.001551067353788644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06072664546190583</v>
+        <v>0.0001033974566469325</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002140657011737251</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.965385334721703e-05</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>-146.2289</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3399996740020741</v>
+        <v>0.0746</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.9085</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>21.6295</v>
       </c>
       <c r="N3" t="n">
-        <v>22.49151875</v>
+        <v>12.84875</v>
       </c>
       <c r="O3" t="n">
-        <v>2.904399999999999</v>
+        <v>10.8157</v>
       </c>
       <c r="P3" t="n">
-        <v>12.398275</v>
+        <v>125928</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>432695</v>
+        <v>20</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U3" t="n">
+        <v>60</v>
       </c>
       <c r="V3" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.005405971593394288</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.007854079331334977</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
+        <v>0.03763444673900855</v>
+      </c>
+      <c r="AD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,103 +777,94 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.67984375</v>
+        <v>0.05250603788680341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003984375</v>
+        <v>0.001567252908558106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07423428617036745</v>
+        <v>0.0001032485570269005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002134818713205991</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.942804687693398e-05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>-145.7663</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3799990896676447</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9075</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>21.5853</v>
       </c>
       <c r="N4" t="n">
-        <v>22.52130624999999</v>
+        <v>13.82375</v>
       </c>
       <c r="O4" t="n">
-        <v>3.253775000000001</v>
+        <v>10.7946</v>
       </c>
       <c r="P4" t="n">
-        <v>12.402175</v>
+        <v>127278</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>436876</v>
+        <v>20</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>60</v>
       </c>
       <c r="V4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.006675427339698515</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.009029122541334986</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
+        <v>0.03787915101424743</v>
+      </c>
+      <c r="AD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,103 +873,94 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.69828125</v>
+        <v>0.05878670956613836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0025</v>
+        <v>0.001866997234563859</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08819426140829716</v>
+        <v>0.0001016965666751921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002142785320123611</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.942974989624887e-05</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>-145.603</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4199990537942545</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.9075</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>21.5718</v>
       </c>
       <c r="N5" t="n">
-        <v>22.56095625</v>
+        <v>14.154</v>
       </c>
       <c r="O5" t="n">
-        <v>3.603200000000001</v>
+        <v>10.787</v>
       </c>
       <c r="P5" t="n">
-        <v>12.4063</v>
+        <v>91230</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>437300</v>
+        <v>20</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U5" t="n">
+        <v>60</v>
       </c>
       <c r="V5" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.006402190104315158</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.008313644437592213</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
+        <v>0.03797380926723698</v>
+      </c>
+      <c r="AD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,103 +969,94 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.671796875</v>
+        <v>0.07451285774597344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003515625</v>
+        <v>0.001752540969741712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1120522703396544</v>
+        <v>0.0001006687922058487</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002166057148703684</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.940483083196337e-05</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>-145.4351</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4600001765346823</v>
+        <v>0.0891</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.90725</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>21.5556</v>
       </c>
       <c r="N6" t="n">
-        <v>22.61067499999999</v>
+        <v>14.48125</v>
       </c>
       <c r="O6" t="n">
-        <v>3.9526875</v>
+        <v>10.7791</v>
       </c>
       <c r="P6" t="n">
-        <v>12.4107</v>
+        <v>108402</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>434858</v>
+        <v>20</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U6" t="n">
+        <v>60</v>
       </c>
       <c r="V6" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.006120722030198883</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.007901959627160841</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
+        <v>0.03806157482054061</v>
+      </c>
+      <c r="AD6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1125,103 +1065,94 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.68578125</v>
+        <v>0.1058596596158167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00296875</v>
+        <v>0.002212827380059273</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1351768603019902</v>
+        <v>0.0001013162070430793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002173575902483256</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.917164362174072e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>-145.2626</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5000012233485214</v>
+        <v>0.0922</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9067499999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>21.5391</v>
       </c>
       <c r="N7" t="n">
-        <v>22.67028125</v>
+        <v>14.807</v>
       </c>
       <c r="O7" t="n">
-        <v>4.3022375</v>
+        <v>10.7709</v>
       </c>
       <c r="P7" t="n">
-        <v>12.4153</v>
+        <v>73775</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>436177</v>
+        <v>20</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U7" t="n">
+        <v>60</v>
       </c>
       <c r="V7" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.007956386812979841</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.007749108027912011</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
+        <v>0.03815106724780061</v>
+      </c>
+      <c r="AD7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1230,103 +1161,94 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.674296875</v>
+        <v>0.1824972469433615</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00375</v>
+        <v>0.002683617201147965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1679439286399888</v>
+        <v>0.0001048989409709285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002211121303288534</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.924366874210862e-05</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>-145.0855</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5400049896433275</v>
+        <v>0.0955</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.9065</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>21.5222</v>
       </c>
       <c r="N8" t="n">
-        <v>22.73975625</v>
+        <v>15.1315</v>
       </c>
       <c r="O8" t="n">
-        <v>4.651875</v>
+        <v>10.7624</v>
       </c>
       <c r="P8" t="n">
-        <v>12.4201125</v>
+        <v>61344</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>431055</v>
+        <v>20</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U8" t="n">
+        <v>60</v>
       </c>
       <c r="V8" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.007093770699990256</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.008640887233368741</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
+        <v>0.03824202825384952</v>
+      </c>
+      <c r="AD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1335,103 +1257,94 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.674921875</v>
+        <v>0.4168932152932049</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005546875</v>
+        <v>0.004044865196375568</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1993190003861794</v>
+        <v>0.0001147776291098536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002239427917087786</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.943026930487804e-05</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.94</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>-144.9037</v>
       </c>
       <c r="K9" t="n">
-        <v>0.579998095832036</v>
+        <v>0.0988</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.9065</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21.505</v>
       </c>
       <c r="N9" t="n">
-        <v>22.81931874999999</v>
+        <v>15.45725</v>
       </c>
       <c r="O9" t="n">
-        <v>5.0016</v>
+        <v>10.7535</v>
       </c>
       <c r="P9" t="n">
-        <v>12.4252375</v>
+        <v>42387</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>430971</v>
+        <v>20</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U9" t="n">
+        <v>60</v>
       </c>
       <c r="V9" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0111742905605798</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.00837516281186023</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
+        <v>0.0383359334186639</v>
+      </c>
+      <c r="AD9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1440,103 +1353,94 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.676015625</v>
+        <v>2.077000826564298</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0034375</v>
+        <v>0.007664164670385147</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2376202034104395</v>
+        <v>0.0001379620173078209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002274953550009401</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.967281425075327e-05</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>-144.7173</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6200002082984606</v>
+        <v>0.1021</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.906</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>21.4867</v>
       </c>
       <c r="N10" t="n">
-        <v>22.90873125</v>
+        <v>15.78275</v>
       </c>
       <c r="O10" t="n">
-        <v>5.351475000000001</v>
+        <v>10.7444</v>
       </c>
       <c r="P10" t="n">
-        <v>12.430475</v>
+        <v>40844</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>431395</v>
+        <v>20</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U10" t="n">
+        <v>60</v>
       </c>
       <c r="V10" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.01723681713348939</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.009425091446127703</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
+        <v>0.03842945113379961</v>
+      </c>
+      <c r="AD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1545,103 +1449,94 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.679609375</v>
+        <v>1.334799418726619</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001328125</v>
+        <v>0.005716012199749333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2842753032444323</v>
+        <v>5.822538347237555e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002292676194735253</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.021366864648573e-05</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>-144.5261</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6599988197013554</v>
+        <v>0.1056</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.9057500000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>21.4671</v>
       </c>
       <c r="N11" t="n">
-        <v>23.008075</v>
+        <v>16.11025</v>
       </c>
       <c r="O11" t="n">
-        <v>5.701437500000001</v>
+        <v>10.7349</v>
       </c>
       <c r="P11" t="n">
-        <v>12.4358875</v>
+        <v>40892</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>438162</v>
+        <v>20</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U11" t="n">
+        <v>60</v>
       </c>
       <c r="V11" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0006622617042092717</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.01022565417319077</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
+        <v>0.03852297675247081</v>
+      </c>
+      <c r="AD11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1650,103 +1545,94 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.68703125</v>
+        <v>2.146678082837572</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0025</v>
+        <v>0.007729951742950882</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3375422867814</v>
+        <v>0.000109843151755799</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002338084171359591</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.093581626698153e-05</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2.06</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>-144.3303</v>
       </c>
       <c r="K12" t="n">
-        <v>0.69999958504686</v>
+        <v>0.1092</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.9055</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.4475</v>
       </c>
       <c r="N12" t="n">
-        <v>23.117375</v>
+        <v>16.439</v>
       </c>
       <c r="O12" t="n">
-        <v>6.051562499999999</v>
+        <v>10.7251</v>
       </c>
       <c r="P12" t="n">
-        <v>12.4414875</v>
+        <v>40823</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>436640</v>
+        <v>20</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U12" t="n">
+        <v>60</v>
       </c>
       <c r="V12" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01252408956798372</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.01046721455475502</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
+        <v>0.03862060916704422</v>
+      </c>
+      <c r="AD12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1755,103 +1641,94 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.682578125</v>
+        <v>0.7068240805896906</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005703125</v>
+        <v>0.004902906456844739</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4162242730783578</v>
+        <v>0.0001053285724818571</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002387814661134228</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.130525130796064e-05</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>-144.1297</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7400015392169229</v>
+        <v>0.1128</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.90525</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>21.4272</v>
       </c>
       <c r="N13" t="n">
-        <v>23.23663749999999</v>
+        <v>16.7665</v>
       </c>
       <c r="O13" t="n">
-        <v>6.401837499999999</v>
+        <v>10.7149</v>
       </c>
       <c r="P13" t="n">
-        <v>12.447275</v>
+        <v>40689</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>435531</v>
+        <v>20</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U13" t="n">
+        <v>60</v>
       </c>
       <c r="V13" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.007595082352703526</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.009838119079429759</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
+        <v>0.03871870343380051</v>
+      </c>
+      <c r="AD13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1860,103 +1737,94 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.68671875</v>
+        <v>0.4229085452187201</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001328125</v>
+        <v>0.004086439124362429</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5259652930583919</v>
+        <v>0.0001042269922222845</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002454109522928979</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.171448644387672e-05</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>-143.9244</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7799986233308355</v>
+        <v>0.1165</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.905</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>21.4063</v>
       </c>
       <c r="N14" t="n">
-        <v>23.36583125</v>
+        <v>17.0935</v>
       </c>
       <c r="O14" t="n">
-        <v>6.752262500000001</v>
+        <v>10.7044</v>
       </c>
       <c r="P14" t="n">
-        <v>12.4532</v>
+        <v>40784</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>435923</v>
+        <v>20</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U14" t="n">
+        <v>60</v>
       </c>
       <c r="V14" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>atq</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.009687473500518106</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.009858798603031325</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
+        <v>0.03881798759284432</v>
+      </c>
+      <c r="AD14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1965,103 +1833,958 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9611</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6782812500000001</v>
+        <v>0.2964327590643399</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00125</v>
+        <v>0.003681115459197602</v>
       </c>
       <c r="F15" t="n">
-        <v>0.722738232671325</v>
+        <v>0.0001035069560183155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002573012749766271</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.216243964919125e-05</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2.18</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>-143.7144</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8200007602135166</v>
+        <v>0.1203</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.9047500000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>21.3853</v>
       </c>
       <c r="N15" t="n">
-        <v>23.50501875</v>
+        <v>17.421</v>
       </c>
       <c r="O15" t="n">
-        <v>7.102887499999998</v>
+        <v>10.6934</v>
       </c>
       <c r="P15" t="n">
-        <v>12.4592875</v>
+        <v>40715</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>434581</v>
+        <v>20</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="U15" t="n">
+        <v>60</v>
       </c>
       <c r="V15" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.01076379713604592</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.03892063699841144</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2342944380934773</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00347585960422129</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.944276951622845e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-143.4995</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1242</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9045</v>
+      </c>
+      <c r="M16" t="n">
+        <v>21.3631</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17.749</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10.6822</v>
+      </c>
+      <c r="P16" t="n">
+        <v>40703</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="n">
+        <v>37</v>
+      </c>
+      <c r="U16" t="n">
+        <v>60</v>
+      </c>
+      <c r="V16" t="n">
+        <v>42</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
         <v>30</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>atq</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="inlineStr">
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>traditional</t>
         </is>
       </c>
-      <c r="AE15" t="n">
-        <v>0.01134522612529689</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AB16" t="n">
+        <v>0.008802277133078932</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.03902302955752032</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2081423542033464</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.003314222804101498</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0001015972025328419</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-143.2798</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1281</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.90425</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21.3392</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18.07875</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10.6705</v>
+      </c>
+      <c r="P17" t="n">
+        <v>42324</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="n">
+        <v>37</v>
+      </c>
+      <c r="U17" t="n">
+        <v>60</v>
+      </c>
+      <c r="V17" t="n">
+        <v>42</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.008481277648723078</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.039124100132813</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1786300758062729</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002920541289285722</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.787379152439539e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-142.8258</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1363</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9037500000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21.288</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18.7345</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10.6459</v>
+      </c>
+      <c r="P18" t="n">
+        <v>50178</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="n">
+        <v>37</v>
+      </c>
+      <c r="U18" t="n">
+        <v>60</v>
+      </c>
+      <c r="V18" t="n">
+        <v>42</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.006785432088612237</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.03932302315478404</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1572322047342827</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002607026889534726</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.335139147135567e-05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-142.1079</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1492</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.90225</v>
+      </c>
+      <c r="M19" t="n">
+        <v>21.2133</v>
+      </c>
+      <c r="N19" t="n">
+        <v>19.72325</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10.6059</v>
+      </c>
+      <c r="P19" t="n">
+        <v>58084</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="n">
+        <v>37</v>
+      </c>
+      <c r="U19" t="n">
+        <v>60</v>
+      </c>
+      <c r="V19" t="n">
+        <v>42</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.008002533403946542</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.03965809309059239</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1495739070680466</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002165091375092233</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.154550035361884e-05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-141.345</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1628</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.90225</v>
+      </c>
+      <c r="M20" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>20.7145</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10.5618</v>
+      </c>
+      <c r="P20" t="n">
+        <v>81493</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="n">
+        <v>37</v>
+      </c>
+      <c r="U20" t="n">
+        <v>60</v>
+      </c>
+      <c r="V20" t="n">
+        <v>42</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.00602246619393468</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.03996280160069794</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1545971136664376</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001928160962952008</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.722482135355902e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-140.5362</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1772</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="M21" t="n">
+        <v>21.0241</v>
+      </c>
+      <c r="N21" t="n">
+        <v>21.7165</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.5133</v>
+      </c>
+      <c r="P21" t="n">
+        <v>101835</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="n">
+        <v>37</v>
+      </c>
+      <c r="U21" t="n">
+        <v>60</v>
+      </c>
+      <c r="V21" t="n">
+        <v>42</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.005819453467044923</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.04029792983343736</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.150558460799648</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002123239819060792</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.526907172571827e-05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-139.6804</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1923</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20.9153</v>
+      </c>
+      <c r="N22" t="n">
+        <v>22.7135</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10.4601</v>
+      </c>
+      <c r="P22" t="n">
+        <v>81516</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>37</v>
+      </c>
+      <c r="U22" t="n">
+        <v>60</v>
+      </c>
+      <c r="V22" t="n">
+        <v>42</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.006823052696210878</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.0406170954397741</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1449964640509775</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002514921038806435</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.358067250381484e-05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-138.7765</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2082</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20.7989</v>
+      </c>
+      <c r="N23" t="n">
+        <v>23.72225</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10.4017</v>
+      </c>
+      <c r="P23" t="n">
+        <v>56442</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="n">
+        <v>37</v>
+      </c>
+      <c r="U23" t="n">
+        <v>60</v>
+      </c>
+      <c r="V23" t="n">
+        <v>42</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.007387342260136955</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.04095065177815922</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1490429637588932</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002931843238354626</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.55486825346174e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-137.8231</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2249</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9025</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20.6712</v>
+      </c>
+      <c r="N24" t="n">
+        <v>24.72825</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10.3378</v>
+      </c>
+      <c r="P24" t="n">
+        <v>40739</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="n">
+        <v>37</v>
+      </c>
+      <c r="U24" t="n">
+        <v>60</v>
+      </c>
+      <c r="V24" t="n">
+        <v>42</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>atq</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.01053255976412362</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.04127453656922206</v>
+      </c>
+      <c r="AD24" t="n">
         <v>0</v>
       </c>
     </row>
